--- a/100runs/run002/NotionalETEOutput002.xlsx
+++ b/100runs/run002/NotionalETEOutput002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>MISSILE_BRAVER_25.MISSILE_BRAVER_25</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_110.MISSILE_HELLMASKER_110</t>
+    <t>MISSILE_BRAVER_493.MISSILE_BRAVER_493</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_94.MISSILE_HIGHWIND_94</t>
+    <t>MISSILE_BRAVER_295.MISSILE_BRAVER_295</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_BRAVER_274.MISSILE_BRAVER_274</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +471,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G2">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H2">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I2">
-        <v>-227.6760546000731</v>
+        <v>1114862.374509473</v>
       </c>
       <c r="J2">
-        <v>1571.523833210206</v>
+        <v>4843220.812215356</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984369.016627935</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G3">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H3">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I3">
-        <v>-223.181123040741</v>
+        <v>1114891.988532953</v>
       </c>
       <c r="J3">
-        <v>1533.295267992559</v>
+        <v>4843172.160651857</v>
       </c>
       <c r="K3">
-        <v>470.5081506730836</v>
+        <v>3984672.812520443</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +541,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G4">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H4">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I4">
-        <v>-218.5755079270215</v>
+        <v>1114922.331774518</v>
       </c>
       <c r="J4">
-        <v>1495.066702774912</v>
+        <v>4843123.509088356</v>
       </c>
       <c r="K4">
-        <v>917.5546082216709</v>
+        <v>3984961.459757202</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G5">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H5">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I5">
-        <v>-213.8564837782149</v>
+        <v>1114953.42219049</v>
       </c>
       <c r="J5">
-        <v>1456.838137557265</v>
+        <v>4843074.857524857</v>
       </c>
       <c r="K5">
-        <v>1341.139372645765</v>
+        <v>3985234.958338208</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G6">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H6">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I6">
-        <v>-209.0212580011666</v>
+        <v>1114985.278179354</v>
       </c>
       <c r="J6">
-        <v>1418.609572339618</v>
+        <v>4843026.205961357</v>
       </c>
       <c r="K6">
-        <v>1741.262443945364</v>
+        <v>3985493.308263465</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +646,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G7">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H7">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I7">
-        <v>-204.0669692376846</v>
+        <v>1115017.918592636</v>
       </c>
       <c r="J7">
-        <v>1380.381007121971</v>
+        <v>4842977.554397858</v>
       </c>
       <c r="K7">
-        <v>2117.92382212047</v>
+        <v>3985736.509532971</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +681,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G8">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H8">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I8">
-        <v>-198.9906856712639</v>
+        <v>1115051.362746066</v>
       </c>
       <c r="J8">
-        <v>1342.152441904324</v>
+        <v>4842928.902834357</v>
       </c>
       <c r="K8">
-        <v>2471.123507171081</v>
+        <v>3985964.562146725</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +716,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G9">
-        <v>-75.05171574033992</v>
+        <v>4841123.3420533</v>
       </c>
       <c r="H9">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I9">
-        <v>-193.7894032921154</v>
+        <v>1115085.630431007</v>
       </c>
       <c r="J9">
-        <v>1303.923876686677</v>
+        <v>4842880.251270858</v>
       </c>
       <c r="K9">
-        <v>2800.861499097198</v>
+        <v>3986177.466104729</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +751,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>315.3322062983007</v>
+        <v>1116579.236564962</v>
       </c>
       <c r="G10">
-        <v>-62.65856490479638</v>
+        <v>4841139.854868345</v>
       </c>
       <c r="H10">
-        <v>1016.404074098891</v>
+        <v>3985230.335211291</v>
       </c>
       <c r="I10">
-        <v>-188.4600441194724</v>
+        <v>1115120.741926164</v>
       </c>
       <c r="J10">
-        <v>1265.69531146903</v>
+        <v>4842831.599707358</v>
       </c>
       <c r="K10">
-        <v>3107.137797898819</v>
+        <v>3986375.221406981</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +786,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>244.7345776259678</v>
+        <v>1116530.555969247</v>
       </c>
       <c r="G11">
-        <v>-50.26541406925283</v>
+        <v>4841156.367683389</v>
       </c>
       <c r="H11">
-        <v>1252.202979850088</v>
+        <v>3985429.589718404</v>
       </c>
       <c r="I11">
-        <v>-182.9994543801235</v>
+        <v>1115156.718009587</v>
       </c>
       <c r="J11">
-        <v>1227.466746251383</v>
+        <v>4842782.948143858</v>
       </c>
       <c r="K11">
-        <v>3389.952403575946</v>
+        <v>3986557.828053483</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +821,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>203.2620123403314</v>
+        <v>1116501.958561347</v>
       </c>
       <c r="G12">
-        <v>-37.8722632337093</v>
+        <v>4841172.880498434</v>
       </c>
       <c r="H12">
-        <v>1392.656867329359</v>
+        <v>3985548.275893104</v>
       </c>
       <c r="I12">
-        <v>-177.4044026420937</v>
+        <v>1115193.579970967</v>
       </c>
       <c r="J12">
-        <v>1189.238181033737</v>
+        <v>4842734.296580357</v>
       </c>
       <c r="K12">
-        <v>3649.305316128579</v>
+        <v>3986725.286044234</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +856,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>177.0814865507082</v>
+        <v>1116483.905779469</v>
       </c>
       <c r="G13">
-        <v>-25.47911239816576</v>
+        <v>4841189.39331348</v>
       </c>
       <c r="H13">
-        <v>1493.029767795446</v>
+        <v>3985633.092880469</v>
       </c>
       <c r="I13">
-        <v>-171.671577902368</v>
+        <v>1115231.349624233</v>
       </c>
       <c r="J13">
-        <v>1151.009615816089</v>
+        <v>4842685.645016858</v>
       </c>
       <c r="K13">
-        <v>3885.196535556719</v>
+        <v>3986877.595379234</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>158.8232941380182</v>
+        <v>1116471.315842667</v>
       </c>
       <c r="G14">
-        <v>-13.08596156262221</v>
+        <v>4841205.906128524</v>
       </c>
       <c r="H14">
-        <v>1571.190091613568</v>
+        <v>3985699.13982309</v>
       </c>
       <c r="I14">
-        <v>-165.7975876275287</v>
+        <v>1115270.049320464</v>
       </c>
       <c r="J14">
-        <v>1112.781050598442</v>
+        <v>4842636.993453358</v>
       </c>
       <c r="K14">
-        <v>4097.626061860364</v>
+        <v>3987014.756058483</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>145.2021358276736</v>
+        <v>1116461.923372788</v>
       </c>
       <c r="G15">
-        <v>-0.6928107270786797</v>
+        <v>4841222.418943569</v>
       </c>
       <c r="H15">
-        <v>1635.209459487946</v>
+        <v>3985753.237392165</v>
       </c>
       <c r="I15">
-        <v>-159.7789557461435</v>
+        <v>1115309.701961111</v>
       </c>
       <c r="J15">
-        <v>1074.552485380796</v>
+        <v>4842588.341889859</v>
       </c>
       <c r="K15">
-        <v>4286.593895039513</v>
+        <v>3987136.768081982</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>134.5522921673499</v>
+        <v>1116454.579772962</v>
       </c>
       <c r="G16">
-        <v>11.70034010846486</v>
+        <v>4841238.931758613</v>
       </c>
       <c r="H16">
-        <v>1689.429190890189</v>
+        <v>3985799.05408424</v>
       </c>
       <c r="I16">
-        <v>-153.6121205917189</v>
+        <v>1115350.331011554</v>
       </c>
       <c r="J16">
-        <v>1036.323920163148</v>
+        <v>4842539.690326358</v>
       </c>
       <c r="K16">
-        <v>4452.100035094169</v>
+        <v>3987243.63144973</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +996,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>125.9357932056044</v>
+        <v>1116448.638265997</v>
       </c>
       <c r="G17">
-        <v>24.09349094400841</v>
+        <v>4841255.444573659</v>
       </c>
       <c r="H17">
-        <v>1736.454932996898</v>
+        <v>3985838.791720151</v>
       </c>
       <c r="I17">
-        <v>-147.2934327950009</v>
+        <v>1115391.960514987</v>
       </c>
       <c r="J17">
-        <v>998.0953549455016</v>
+        <v>4842491.038762859</v>
       </c>
       <c r="K17">
-        <v>4594.144482024329</v>
+        <v>3987335.346161726</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>118.7810288367777</v>
+        <v>1116443.704698139</v>
       </c>
       <c r="G18">
-        <v>36.48664177955194</v>
+        <v>4841271.957388704</v>
       </c>
       <c r="H18">
-        <v>1777.974009906017</v>
+        <v>3985873.876120475</v>
       </c>
       <c r="I18">
-        <v>-140.819153124375</v>
+        <v>1115434.615106643</v>
       </c>
       <c r="J18">
-        <v>959.8667897278546</v>
+        <v>4842442.387199359</v>
       </c>
       <c r="K18">
-        <v>4712.727235829996</v>
+        <v>3987411.912217972</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>112.7179043633281</v>
+        <v>1116439.523870584</v>
       </c>
       <c r="G19">
-        <v>48.8797926150955</v>
+        <v>4841288.470203748</v>
       </c>
       <c r="H19">
-        <v>1815.141938576972</v>
+        <v>3985905.28371876</v>
       </c>
       <c r="I19">
-        <v>-134.1854502730879</v>
+        <v>1115478.320028377</v>
       </c>
       <c r="J19">
-        <v>921.6382245102075</v>
+        <v>4842393.73563586</v>
       </c>
       <c r="K19">
-        <v>4807.848296511169</v>
+        <v>3987473.329618467</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>107.4951141500958</v>
+        <v>1116435.922495529</v>
       </c>
       <c r="G20">
-        <v>61.27294345063903</v>
+        <v>4841304.983018793</v>
       </c>
       <c r="H20">
-        <v>1848.784817128226</v>
+        <v>3985933.712583441</v>
       </c>
       <c r="I20">
-        <v>-127.3883985919826</v>
+        <v>1115523.101143601</v>
       </c>
       <c r="J20">
-        <v>883.4096592925606</v>
+        <v>4842345.084072359</v>
       </c>
       <c r="K20">
-        <v>4879.507664067846</v>
+        <v>3987519.598363211</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1136,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>102.9353484233154</v>
+        <v>1116432.778309016</v>
       </c>
       <c r="G21">
-        <v>73.66609428618256</v>
+        <v>4841321.495833838</v>
       </c>
       <c r="H21">
-        <v>1879.513745268621</v>
+        <v>3985959.679105259</v>
       </c>
       <c r="I21">
-        <v>-120.4239757664029</v>
+        <v>1115568.98495259</v>
       </c>
       <c r="J21">
-        <v>845.1810940749136</v>
+        <v>4842296.43250886</v>
       </c>
       <c r="K21">
-        <v>4927.70533850003</v>
+        <v>3987550.718452204</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1171,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>98.90950625104091</v>
+        <v>1116430.002289497</v>
       </c>
       <c r="G22">
-        <v>86.05924512172611</v>
+        <v>4841338.008648883</v>
       </c>
       <c r="H22">
-        <v>1907.793511435392</v>
+        <v>3985983.576039177</v>
       </c>
       <c r="I22">
-        <v>-113.2880604358949</v>
+        <v>1115615.998608162</v>
       </c>
       <c r="J22">
-        <v>806.9525288572668</v>
+        <v>4842247.78094536</v>
       </c>
       <c r="K22">
-        <v>4952.441319807719</v>
+        <v>3987566.689885447</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1206,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>95.32108421541456</v>
+        <v>1116427.527893038</v>
       </c>
       <c r="G23">
-        <v>98.45239595726964</v>
+        <v>4841354.521463928</v>
       </c>
       <c r="H23">
-        <v>1933.985867290578</v>
+        <v>3986005.709072151</v>
       </c>
       <c r="I23">
-        <v>-105.9764297552948</v>
+        <v>1115664.169931752</v>
       </c>
       <c r="J23">
-        <v>768.7239636396197</v>
+        <v>4842199.129381861</v>
       </c>
       <c r="K23">
-        <v>4953.715607990914</v>
+        <v>3987567.512662938</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1241,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>92.09632030050309</v>
+        <v>1116425.304257041</v>
       </c>
       <c r="G24">
-        <v>110.8455467928132</v>
+        <v>4841371.034278973</v>
       </c>
       <c r="H24">
-        <v>1958.377898831363</v>
+        <v>3986026.320797242</v>
       </c>
       <c r="I24">
-        <v>-98.4847568957619</v>
+        <v>1115713.527429868</v>
       </c>
       <c r="J24">
-        <v>730.4953984219726</v>
+        <v>4842150.47781836</v>
       </c>
       <c r="K24">
-        <v>4931.528203049614</v>
+        <v>3987553.186784679</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>89.17774631673609</v>
+        <v>1116423.291754315</v>
       </c>
       <c r="G25">
-        <v>123.2386976283567</v>
+        <v>4841387.547094018</v>
       </c>
       <c r="H25">
-        <v>1981.201258313723</v>
+        <v>3986045.606964962</v>
       </c>
       <c r="I25">
-        <v>-90.80860848427557</v>
+        <v>1115764.100310967</v>
       </c>
       <c r="J25">
-        <v>692.2668332043257</v>
+        <v>4842101.82625486</v>
       </c>
       <c r="K25">
-        <v>4885.87910498382</v>
+        <v>3987523.712250668</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1311,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>86.51983974402619</v>
+        <v>1116421.458994805</v>
       </c>
       <c r="G26">
-        <v>135.6318484639003</v>
+        <v>4841404.059909063</v>
       </c>
       <c r="H26">
-        <v>2002.645576969828</v>
+        <v>3986063.727817264</v>
       </c>
       <c r="I26">
-        <v>-82.94344198008345</v>
+        <v>1115815.918502736</v>
       </c>
       <c r="J26">
-        <v>654.0382679866788</v>
+        <v>4842053.17469136</v>
       </c>
       <c r="K26">
-        <v>4816.768313793531</v>
+        <v>3987479.089060907</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1346,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>84.08601305132865</v>
+        <v>1116419.78074958</v>
       </c>
       <c r="G27">
-        <v>148.0249992994438</v>
+        <v>4841420.572724108</v>
       </c>
       <c r="H27">
-        <v>2022.868051418562</v>
+        <v>3986080.816188247</v>
       </c>
       <c r="I27">
-        <v>-74.88460298654613</v>
+        <v>1115869.012669807</v>
       </c>
       <c r="J27">
-        <v>615.8097027690317</v>
+        <v>4842004.52312786</v>
       </c>
       <c r="K27">
-        <v>4724.195829478748</v>
+        <v>3987419.317215395</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>81.84648046171863</v>
+        <v>1116418.236479855</v>
       </c>
       <c r="G28">
-        <v>160.4181501349873</v>
+        <v>4841437.085539153</v>
       </c>
       <c r="H28">
-        <v>2042.000443224851</v>
+        <v>3986096.98341891</v>
       </c>
       <c r="I28">
-        <v>-66.62732249678892</v>
+        <v>1115923.414231895</v>
       </c>
       <c r="J28">
-        <v>577.5811375513848</v>
+        <v>4841955.87156436</v>
       </c>
       <c r="K28">
-        <v>4608.161652039471</v>
+        <v>3987344.396714132</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1416,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>79.77671538244432</v>
+        <v>1116416.809273319</v>
       </c>
       <c r="G29">
-        <v>172.8113009705309</v>
+        <v>4841453.598354198</v>
       </c>
       <c r="H29">
-        <v>2060.154286547835</v>
+        <v>3986112.323757713</v>
       </c>
       <c r="I29">
-        <v>-58.16671407153009</v>
+        <v>1115979.155382402</v>
       </c>
       <c r="J29">
-        <v>539.3525723337378</v>
+        <v>4841907.220000861</v>
       </c>
       <c r="K29">
-        <v>4468.665781475699</v>
+        <v>3987254.327557119</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1451,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>77.85631461428332</v>
+        <v>1116415.485060946</v>
       </c>
       <c r="G30">
-        <v>185.2044518060744</v>
+        <v>4841470.111169242</v>
       </c>
       <c r="H30">
-        <v>2077.424827650879</v>
+        <v>3986126.917689538</v>
       </c>
       <c r="I30">
-        <v>-49.49777094741631</v>
+        <v>1116036.269107459</v>
       </c>
       <c r="J30">
-        <v>501.1240071160908</v>
+        <v>4841858.568437361</v>
       </c>
       <c r="K30">
-        <v>4305.708217787433</v>
+        <v>3987149.109744354</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>76.06814844736101</v>
+        <v>1116414.252030944</v>
       </c>
       <c r="G31">
-        <v>197.597602641618</v>
+        <v>4841486.623984287</v>
       </c>
       <c r="H31">
-        <v>2093.894049698905</v>
+        <v>3986140.834491701</v>
       </c>
       <c r="I31">
-        <v>-40.6153630741527</v>
+        <v>1116094.789205452</v>
       </c>
       <c r="J31">
-        <v>462.8954418984439</v>
+        <v>4841809.916873861</v>
       </c>
       <c r="K31">
-        <v>4119.288960974674</v>
+        <v>3987028.743275839</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>74.39771537008747</v>
+        <v>1116413.100183795</v>
       </c>
       <c r="G32">
-        <v>209.9907534771615</v>
+        <v>4841503.136799333</v>
       </c>
       <c r="H32">
-        <v>2109.633026436619</v>
+        <v>3986154.134222853</v>
       </c>
       <c r="I32">
-        <v>-31.51423407867538</v>
+        <v>1116154.75030702</v>
       </c>
       <c r="J32">
-        <v>424.6668766807969</v>
+        <v>4841761.265310361</v>
       </c>
       <c r="K32">
-        <v>3909.408011037418</v>
+        <v>3986893.228151572</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1556,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>72.83264564602204</v>
+        <v>1116412.020989947</v>
       </c>
       <c r="G33">
-        <v>222.383904312705</v>
+        <v>4841519.649614377</v>
       </c>
       <c r="H33">
-        <v>2124.703775864549</v>
+        <v>3986166.869289369</v>
       </c>
       <c r="I33">
-        <v>-22.18899815456953</v>
+        <v>1116216.187895551</v>
       </c>
       <c r="J33">
-        <v>386.4383114631499</v>
+        <v>4841712.613746862</v>
       </c>
       <c r="K33">
-        <v>3676.065367975669</v>
+        <v>3986742.564371555</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1591,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>71.36231482386172</v>
+        <v>1116411.007123311</v>
       </c>
       <c r="G34">
-        <v>234.7770551482486</v>
+        <v>4841536.162429422</v>
       </c>
       <c r="H34">
-        <v>2139.160736196203</v>
+        <v>3986179.085692563</v>
       </c>
       <c r="I34">
-        <v>-12.63413687489229</v>
+        <v>1116279.138328179</v>
       </c>
       <c r="J34">
-        <v>348.2097462455029</v>
+        <v>4841663.962183362</v>
       </c>
       <c r="K34">
-        <v>3419.261031789425</v>
+        <v>3986576.751935787</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>69.9775395356417</v>
+        <v>1116410.052251494</v>
       </c>
       <c r="G35">
-        <v>247.1702059837922</v>
+        <v>4841552.675244466</v>
       </c>
       <c r="H35">
-        <v>2153.051952851224</v>
+        <v>3986190.824031716</v>
       </c>
       <c r="I35">
-        <v>-2.843995926514245</v>
+        <v>1116343.638857296</v>
       </c>
       <c r="J35">
-        <v>309.9811810278559</v>
+        <v>4841615.310619862</v>
       </c>
       <c r="K35">
-        <v>3138.995002478686</v>
+        <v>3986395.790844268</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1661,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>68.67033565755479</v>
+        <v>1116409.150869044</v>
       </c>
       <c r="G36">
-        <v>259.5633568193357</v>
+        <v>4841569.188059512</v>
       </c>
       <c r="H36">
-        <v>2166.420041822453</v>
+        <v>3986202.120318145</v>
       </c>
       <c r="I36">
-        <v>7.187218235953121</v>
+        <v>1116409.727652603</v>
       </c>
       <c r="J36">
-        <v>271.752615810209</v>
+        <v>4841566.659056362</v>
       </c>
       <c r="K36">
-        <v>2835.267280043454</v>
+        <v>3986199.681096999</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>67.43372427289883</v>
+        <v>1116408.298163649</v>
       </c>
       <c r="G37">
-        <v>271.9565076548792</v>
+        <v>4841585.700874557</v>
       </c>
       <c r="H37">
-        <v>2179.302978143092</v>
+        <v>3986213.006641466</v>
       </c>
       <c r="I37">
-        <v>17.46544181862342</v>
+        <v>1116477.443823694</v>
       </c>
       <c r="J37">
-        <v>233.524050592562</v>
+        <v>4841518.007492863</v>
       </c>
       <c r="K37">
-        <v>2508.077864483727</v>
+        <v>3985988.422693978</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1731,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>66.26157466186963</v>
+        <v>1116407.48990787</v>
       </c>
       <c r="G38">
-        <v>284.3496584904228</v>
+        <v>4841602.213689601</v>
       </c>
       <c r="H38">
-        <v>2191.73474622646</v>
+        <v>3986223.511719148</v>
       </c>
       <c r="I38">
-        <v>27.99675720122476</v>
+        <v>1116546.827443201</v>
       </c>
       <c r="J38">
-        <v>195.2954853749151</v>
+        <v>4841469.355929363</v>
       </c>
       <c r="K38">
-        <v>2157.426755799507</v>
+        <v>3985762.015635206</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1766,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>65.14847625064991</v>
+        <v>1116406.722370847</v>
       </c>
       <c r="G39">
-        <v>296.7428093259663</v>
+        <v>4841618.726504646</v>
       </c>
       <c r="H39">
-        <v>2203.745880135434</v>
+        <v>3986233.661353045</v>
       </c>
       <c r="I39">
-        <v>38.78739653649004</v>
+        <v>1116617.919570507</v>
       </c>
       <c r="J39">
-        <v>157.0669201572681</v>
+        <v>4841420.704365863</v>
       </c>
       <c r="K39">
-        <v>1783.31395399079</v>
+        <v>3985520.459920683</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1801,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>64.08963341405834</v>
+        <v>1116405.992245756</v>
       </c>
       <c r="G40">
-        <v>309.1359601615098</v>
+        <v>4841635.239319691</v>
       </c>
       <c r="H40">
-        <v>2215.363915406911</v>
+        <v>3986243.478811207</v>
       </c>
       <c r="I40">
-        <v>49.84374543818018</v>
+        <v>1116690.762276043</v>
       </c>
       <c r="J40">
-        <v>118.838354939621</v>
+        <v>4841372.052802362</v>
       </c>
       <c r="K40">
-        <v>1385.73945905758</v>
+        <v>3985263.755550411</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>63.08077846430229</v>
+        <v>1116405.296589813</v>
       </c>
       <c r="G41">
-        <v>321.5291109970534</v>
+        <v>4841651.752134736</v>
       </c>
       <c r="H41">
-        <v>2226.613769256545</v>
+        <v>3986252.985149146</v>
       </c>
       <c r="I41">
-        <v>61.17234675991978</v>
+        <v>1116765.39866619</v>
       </c>
       <c r="J41">
-        <v>80.60978972197417</v>
+        <v>4841323.401238863</v>
       </c>
       <c r="K41">
-        <v>964.7032709998756</v>
+        <v>3984991.902524386</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1871,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>62.11809922448452</v>
+        <v>1116404.632774332</v>
       </c>
       <c r="G42">
-        <v>333.9222618325969</v>
+        <v>4841668.264949781</v>
       </c>
       <c r="H42">
-        <v>2237.518062369315</v>
+        <v>3986262.199481769</v>
       </c>
       <c r="I42">
-        <v>72.77990446708536</v>
+        <v>1116841.872908779</v>
       </c>
       <c r="J42">
-        <v>42.38122450432711</v>
+        <v>4841274.749675363</v>
       </c>
       <c r="K42">
-        <v>520.205389817676</v>
+        <v>3984704.900842611</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>61.19817838385686</v>
+        <v>1116403.998442905</v>
       </c>
       <c r="G43">
-        <v>346.3154126681405</v>
+        <v>4841684.777764826</v>
       </c>
       <c r="H43">
-        <v>2248.097392725251</v>
+        <v>3986271.139214755</v>
       </c>
       <c r="I43">
-        <v>84.67328760403251</v>
+        <v>1116920.230259238</v>
       </c>
       <c r="J43">
-        <v>4.152659286680074</v>
+        <v>4841226.098111863</v>
       </c>
       <c r="K43">
-        <v>52.2458155109822</v>
+        <v>3984402.750505086</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1941,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>60.3179424353992</v>
+        <v>1116403.391476196</v>
       </c>
       <c r="G44">
-        <v>358.708563503684</v>
+        <v>4841701.29057987</v>
       </c>
       <c r="H44">
-        <v>2258.370569791874</v>
+        <v>3986279.820242456</v>
       </c>
       <c r="I44">
-        <v>96.85953435901503</v>
+        <v>1117000.517087364</v>
       </c>
       <c r="J44">
-        <v>-34.07590593096679</v>
+        <v>4841177.446548363</v>
       </c>
       <c r="K44">
-        <v>-439.1754519202045</v>
+        <v>3984085.451511809</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1976,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>59.47461845672636</v>
+        <v>1116402.809962136</v>
       </c>
       <c r="G45">
-        <v>371.1017143392275</v>
+        <v>4841717.803394916</v>
       </c>
       <c r="H45">
-        <v>2268.354815773923</v>
+        <v>3986288.257117961</v>
       </c>
       <c r="I45">
-        <v>109.3458562291976</v>
+        <v>1117082.78090477</v>
       </c>
       <c r="J45">
-        <v>-72.30447114861383</v>
+        <v>4841128.794984864</v>
       </c>
       <c r="K45">
-        <v>-954.0584124758871</v>
+        <v>3983753.003862781</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2011,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>58.66569734949905</v>
+        <v>1116402.252170576</v>
       </c>
       <c r="G46">
-        <v>383.4948651747711</v>
+        <v>4841734.31620996</v>
       </c>
       <c r="H46">
-        <v>2278.065939329202</v>
+        <v>3986296.463199882</v>
       </c>
       <c r="I46">
-        <v>122.139642288228</v>
+        <v>1117167.070392998</v>
       </c>
       <c r="J46">
-        <v>-110.5330363662609</v>
+        <v>4841080.143421363</v>
       </c>
       <c r="K46">
-        <v>-1492.403066156065</v>
+        <v>3983405.407558003</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2046,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>57.88890242712495</v>
+        <v>1116401.716531628</v>
       </c>
       <c r="G47">
-        <v>395.8880160103146</v>
+        <v>4841750.829025005</v>
       </c>
       <c r="H47">
-        <v>2287.51848615086</v>
+        <v>3986304.450779604</v>
       </c>
       <c r="I47">
-        <v>135.2484635588947</v>
+        <v>1117253.435432329</v>
       </c>
       <c r="J47">
-        <v>-148.7616015839079</v>
+        <v>4841031.491857864</v>
       </c>
       <c r="K47">
-        <v>-2054.209412960737</v>
+        <v>3983042.662597473</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2081,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>57.14216245502213</v>
+        <v>1116401.201617071</v>
       </c>
       <c r="G48">
-        <v>408.2811668458581</v>
+        <v>4841767.34184005</v>
       </c>
       <c r="H48">
-        <v>2296.725870017213</v>
+        <v>3986312.23119202</v>
       </c>
       <c r="I48">
-        <v>148.6800774934571</v>
+        <v>1117341.927131299</v>
       </c>
       <c r="J48">
-        <v>-186.9901668015546</v>
+        <v>4840982.840294364</v>
       </c>
       <c r="K48">
-        <v>-2639.477452889899</v>
+        <v>3982664.768981193</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2116,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>56.42358841643633</v>
+        <v>1116400.706124334</v>
       </c>
       <c r="G49">
-        <v>420.6743176814018</v>
+        <v>4841783.854655094</v>
       </c>
       <c r="H49">
-        <v>2305.700487272704</v>
+        <v>3986319.814912275</v>
       </c>
       <c r="I49">
-        <v>162.4424325642999</v>
+        <v>1117432.597856946</v>
       </c>
       <c r="J49">
-        <v>-225.2187320192016</v>
+        <v>4840934.188730865</v>
       </c>
       <c r="K49">
-        <v>-3248.207185943559</v>
+        <v>3982271.726709162</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2151,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>55.73145341038899</v>
+        <v>1116400.228862632</v>
       </c>
       <c r="G50">
-        <v>433.0674685169453</v>
+        <v>4841800.36747014</v>
       </c>
       <c r="H50">
-        <v>2314.453817191933</v>
+        <v>3986327.211640573</v>
       </c>
       <c r="I50">
-        <v>176.5436729676277</v>
+        <v>1117525.501265796</v>
       </c>
       <c r="J50">
-        <v>-263.4472972368487</v>
+        <v>4840885.537167364</v>
       </c>
       <c r="K50">
-        <v>-3880.398612121714</v>
+        <v>3981863.53578138</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>55.06417519477166</v>
+        <v>1116399.768740931</v>
       </c>
       <c r="G51">
-        <v>445.4606193524888</v>
+        <v>4841816.880285185</v>
       </c>
       <c r="H51">
-        <v>2322.996510265536</v>
+        <v>3986334.430376777</v>
       </c>
       <c r="I51">
-        <v>190.9921434429841</v>
+        <v>1117620.692335619</v>
       </c>
       <c r="J51">
-        <v>-301.6758624544958</v>
+        <v>4840836.885603865</v>
       </c>
       <c r="K51">
-        <v>-4536.051731424364</v>
+        <v>3981440.196197847</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>54.42030097291568</v>
+        <v>1116399.324757453</v>
       </c>
       <c r="G52">
-        <v>457.8537701880323</v>
+        <v>4841833.393100229</v>
       </c>
       <c r="H52">
-        <v>2331.338466111217</v>
+        <v>3986341.479486251</v>
       </c>
       <c r="I52">
-        <v>205.7963942114472</v>
+        <v>1117718.227397962</v>
       </c>
       <c r="J52">
-        <v>-339.9044276721428</v>
+        <v>4840788.234040365</v>
       </c>
       <c r="K52">
-        <v>-5215.166543851507</v>
+        <v>3981001.707958563</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>53.79849409072298</v>
+        <v>1116398.89599051</v>
       </c>
       <c r="G53">
-        <v>470.2469210235759</v>
+        <v>4841849.905915274</v>
       </c>
       <c r="H53">
-        <v>2339.488902439433</v>
+        <v>3986348.366758132</v>
       </c>
       <c r="I53">
-        <v>220.9651860354224</v>
+        <v>1117818.164171486</v>
       </c>
       <c r="J53">
-        <v>-378.1329928897895</v>
+        <v>4840739.582476866</v>
       </c>
       <c r="K53">
-        <v>-5917.743049403141</v>
+        <v>3980548.071063529</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2291,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>53.19752236716893</v>
+        <v>1116398.48159045</v>
       </c>
       <c r="G54">
-        <v>482.6400718591194</v>
+        <v>4841866.418730319</v>
       </c>
       <c r="H54">
-        <v>2347.456416278591</v>
+        <v>3986355.099457073</v>
       </c>
       <c r="I54">
-        <v>236.5074954030306</v>
+        <v>1117920.561796117</v>
       </c>
       <c r="J54">
-        <v>-416.3615581074365</v>
+        <v>4840690.930913365</v>
       </c>
       <c r="K54">
-        <v>-6643.781248079274</v>
+        <v>3980079.285512744</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2323,10 +2323,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G55">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H55">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I55">
-        <v>-1731.956663192763</v>
+        <v>1114862.023843382</v>
       </c>
       <c r="J55">
-        <v>1847.405445651556</v>
+        <v>4843217.613862735</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984364.888634028</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2358,10 +2358,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G56">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H56">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I56">
-        <v>-1697.7632269157</v>
+        <v>1114891.637857548</v>
       </c>
       <c r="J56">
-        <v>1802.465841128816</v>
+        <v>4843168.962331364</v>
       </c>
       <c r="K56">
-        <v>355.6931441558209</v>
+        <v>3984668.68421179</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2393,10 +2393,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G57">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H57">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I57">
-        <v>-1662.727808727699</v>
+        <v>1114921.981089568</v>
       </c>
       <c r="J57">
-        <v>1757.526236606076</v>
+        <v>4843120.310799992</v>
       </c>
       <c r="K57">
-        <v>693.6497977051922</v>
+        <v>3984957.331149496</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2428,10 +2428,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G58">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H58">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I58">
-        <v>-1626.829675598812</v>
+        <v>1114953.071495762</v>
       </c>
       <c r="J58">
-        <v>1712.586632083336</v>
+        <v>4843071.659268621</v>
       </c>
       <c r="K58">
-        <v>1013.869960648117</v>
+        <v>3985230.829447146</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2463,10 +2463,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G59">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H59">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I59">
-        <v>-1590.047583967304</v>
+        <v>1114984.927474605</v>
       </c>
       <c r="J59">
-        <v>1667.647027560597</v>
+        <v>4843023.00773725</v>
       </c>
       <c r="K59">
-        <v>1316.353632984592</v>
+        <v>3985489.179104739</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2498,10 +2498,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>16</v>
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G60">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H60">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I60">
-        <v>-1552.359767168273</v>
+        <v>1115017.567877621</v>
       </c>
       <c r="J60">
-        <v>1622.707423037857</v>
+        <v>4842974.356205879</v>
       </c>
       <c r="K60">
-        <v>1601.10081471462</v>
+        <v>3985732.380122277</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2533,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>16</v>
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G61">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H61">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I61">
-        <v>-1513.743922552721</v>
+        <v>1115051.012020532</v>
       </c>
       <c r="J61">
-        <v>1577.767818515117</v>
+        <v>4842925.704674507</v>
       </c>
       <c r="K61">
-        <v>1868.1115058382</v>
+        <v>3985960.432499758</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2568,10 +2568,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G62">
-        <v>-96.93868433265568</v>
+        <v>4841126.316303194</v>
       </c>
       <c r="H62">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I62">
-        <v>-1474.177198289438</v>
+        <v>1115085.279694694</v>
       </c>
       <c r="J62">
-        <v>1532.828213992377</v>
+        <v>4842877.053143135</v>
       </c>
       <c r="K62">
-        <v>2117.385706355332</v>
+        <v>3986173.336237183</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2603,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>172.4374141784934</v>
+        <v>1116578.184313511</v>
       </c>
       <c r="G63">
-        <v>-80.93137890488636</v>
+        <v>4841142.829128384</v>
       </c>
       <c r="H63">
-        <v>1198.634728364411</v>
+        <v>3985236.289850499</v>
       </c>
       <c r="I63">
-        <v>-1433.63617984189</v>
+        <v>1115120.391178807</v>
       </c>
       <c r="J63">
-        <v>1487.888609469638</v>
+        <v>4842828.401611764</v>
       </c>
       <c r="K63">
-        <v>2348.923416266015</v>
+        <v>3986371.091334552</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2638,10 +2638,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>133.8315493405885</v>
+        <v>1116529.503763672</v>
       </c>
       <c r="G64">
-        <v>-64.92407347711703</v>
+        <v>4841159.341953574</v>
       </c>
       <c r="H64">
-        <v>1476.709919664964</v>
+        <v>3985435.544655335</v>
       </c>
       <c r="I64">
-        <v>-1392.096876112123</v>
+        <v>1115156.367250914</v>
       </c>
       <c r="J64">
-        <v>1442.949004946898</v>
+        <v>4842779.750080393</v>
       </c>
       <c r="K64">
-        <v>2562.72463557025</v>
+        <v>3986553.697791865</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2673,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>111.1525404275606</v>
+        <v>1116500.906382722</v>
       </c>
       <c r="G65">
-        <v>-48.91676804934772</v>
+        <v>4841175.854778764</v>
       </c>
       <c r="H65">
-        <v>1642.345724908756</v>
+        <v>3985554.231007372</v>
       </c>
       <c r="I65">
-        <v>-1349.534705243471</v>
+        <v>1115193.229200699</v>
       </c>
       <c r="J65">
-        <v>1398.009400424158</v>
+        <v>4842731.09854902</v>
       </c>
       <c r="K65">
-        <v>2758.789364268037</v>
+        <v>3986721.155609122</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2708,10 +2708,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>96.83588618538239</v>
+        <v>1116482.853617857</v>
       </c>
       <c r="G66">
-        <v>-32.9094626215784</v>
+        <v>4841192.367603954</v>
       </c>
       <c r="H66">
-        <v>1760.714440020391</v>
+        <v>3985639.04812147</v>
       </c>
       <c r="I66">
-        <v>-1305.924480073656</v>
+        <v>1115230.998842086</v>
       </c>
       <c r="J66">
-        <v>1353.069795901419</v>
+        <v>4842682.447017649</v>
       </c>
       <c r="K66">
-        <v>2937.117602359377</v>
+        <v>3986873.464786322</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2743,10 +2743,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>86.85150963159867</v>
+        <v>1116470.26369292</v>
       </c>
       <c r="G67">
-        <v>-16.90215719380908</v>
+        <v>4841208.880429143</v>
       </c>
       <c r="H67">
-        <v>1852.888095061736</v>
+        <v>3985705.095162776</v>
       </c>
       <c r="I67">
-        <v>-1261.240393229707</v>
+        <v>1115269.698526144</v>
       </c>
       <c r="J67">
-        <v>1308.130191378679</v>
+        <v>4842633.795486278</v>
       </c>
       <c r="K67">
-        <v>3097.709349844268</v>
+        <v>3987010.625323466</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2778,10 +2778,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
         <v>16</v>
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>79.40286572451302</v>
+        <v>1116460.871231891</v>
       </c>
       <c r="G68">
-        <v>-0.8948517660397676</v>
+        <v>4841225.393254333</v>
       </c>
       <c r="H68">
-        <v>1928.385468180983</v>
+        <v>3985759.192812682</v>
       </c>
       <c r="I68">
-        <v>-1215.456001855831</v>
+        <v>1115309.351154319</v>
       </c>
       <c r="J68">
-        <v>1263.190586855939</v>
+        <v>4842585.143954908</v>
       </c>
       <c r="K68">
-        <v>3240.564606722711</v>
+        <v>3987132.637220555</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2813,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>73.57906636145587</v>
+        <v>1116453.527638986</v>
       </c>
       <c r="G69">
-        <v>15.11245366172956</v>
+        <v>4841241.906079522</v>
       </c>
       <c r="H69">
-        <v>1992.326232171856</v>
+        <v>3985805.009573215</v>
       </c>
       <c r="I69">
-        <v>-1168.544211965242</v>
+        <v>1115349.980191983</v>
       </c>
       <c r="J69">
-        <v>1218.250982333199</v>
+        <v>4842536.492423535</v>
       </c>
       <c r="K69">
-        <v>3365.683372994706</v>
+        <v>3987239.500477587</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2848,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>68.86718863200659</v>
+        <v>1116447.58613762</v>
       </c>
       <c r="G70">
-        <v>31.11975908949888</v>
+        <v>4841258.418904712</v>
       </c>
       <c r="H70">
-        <v>2047.783199585316</v>
+        <v>3985844.747268502</v>
       </c>
       <c r="I70">
-        <v>-1120.477262406652</v>
+        <v>1115391.609682321</v>
       </c>
       <c r="J70">
-        <v>1173.31137781046</v>
+        <v>4842487.840892164</v>
       </c>
       <c r="K70">
-        <v>3473.065648660252</v>
+        <v>3987331.215094562</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2883,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>64.95465118047278</v>
+        <v>1116442.652574412</v>
       </c>
       <c r="G71">
-        <v>47.12706451726819</v>
+        <v>4841274.931729903</v>
       </c>
       <c r="H71">
-        <v>2096.746214139368</v>
+        <v>3985879.831721248</v>
       </c>
       <c r="I71">
-        <v>-1071.226708435964</v>
+        <v>1115434.264260561</v>
       </c>
       <c r="J71">
-        <v>1128.37177328772</v>
+        <v>4842439.189360793</v>
       </c>
       <c r="K71">
-        <v>3562.711433719351</v>
+        <v>3987407.781071482</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2918,10 +2918,10 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>61.63907007216395</v>
+        <v>1116438.471750797</v>
       </c>
       <c r="G72">
-        <v>63.13436994503753</v>
+        <v>4841291.444555093</v>
       </c>
       <c r="H72">
-        <v>2140.577964937766</v>
+        <v>3985911.239366462</v>
       </c>
       <c r="I72">
-        <v>-1020.763404883427</v>
+        <v>1115477.969168548</v>
       </c>
       <c r="J72">
-        <v>1083.43216876498</v>
+        <v>4842390.537829421</v>
       </c>
       <c r="K72">
-        <v>3634.620728172002</v>
+        <v>3987469.198408346</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2953,10 +2953,10 @@
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
         <v>16</v>
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>58.78302041666331</v>
+        <v>1116434.870379135</v>
       </c>
       <c r="G73">
-        <v>79.14167537280683</v>
+        <v>4841307.957380283</v>
       </c>
       <c r="H73">
-        <v>2180.252660879367</v>
+        <v>3985939.66827362</v>
       </c>
       <c r="I73">
-        <v>-969.057488906297</v>
+        <v>1115522.750269687</v>
       </c>
       <c r="J73">
-        <v>1038.49256424224</v>
+        <v>4842341.886298049</v>
       </c>
       <c r="K73">
-        <v>3688.793532018204</v>
+        <v>3987515.467105153</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2988,10 +2988,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>56.28954149037205</v>
+        <v>1116431.726195586</v>
       </c>
       <c r="G74">
-        <v>95.14898080057614</v>
+        <v>4841324.470205473</v>
       </c>
       <c r="H74">
-        <v>2216.490965479973</v>
+        <v>3985965.634834237</v>
       </c>
       <c r="I74">
-        <v>-916.0783623168005</v>
+        <v>1115568.634064244</v>
       </c>
       <c r="J74">
-        <v>993.5529597195006</v>
+        <v>4842293.234766678</v>
       </c>
       <c r="K74">
-        <v>3725.229845257958</v>
+        <v>3987546.587161905</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3023,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>54.08803526864148</v>
+        <v>1116428.950178683</v>
       </c>
       <c r="G75">
-        <v>111.1562862283455</v>
+        <v>4841340.983030662</v>
       </c>
       <c r="H75">
-        <v>2249.840998898098</v>
+        <v>3985989.531803861</v>
       </c>
       <c r="I75">
-        <v>-861.7946734749402</v>
+        <v>1115615.647705029</v>
       </c>
       <c r="J75">
-        <v>948.6133551967609</v>
+        <v>4842244.583235307</v>
       </c>
       <c r="K75">
-        <v>3743.929667891264</v>
+        <v>3987562.5585786</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3058,10 +3058,10 @@
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>52.12572947035846</v>
+        <v>1116426.475784556</v>
       </c>
       <c r="G76">
-        <v>127.1635916561148</v>
+        <v>4841357.495855852</v>
       </c>
       <c r="H76">
-        <v>2280.729371097451</v>
+        <v>3986011.664869905</v>
       </c>
       <c r="I76">
-        <v>-806.174298735427</v>
+        <v>1115663.819013466</v>
       </c>
       <c r="J76">
-        <v>903.6737506740211</v>
+        <v>4842195.931703935</v>
       </c>
       <c r="K76">
-        <v>3744.892999918122</v>
+        <v>3987563.381355239</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3093,10 +3093,10 @@
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>50.3622878056101</v>
+        <v>1116424.252150655</v>
       </c>
       <c r="G77">
-        <v>143.1708970838841</v>
+        <v>4841374.008681042</v>
       </c>
       <c r="H77">
-        <v>2309.49463960158</v>
+        <v>3986032.276625794</v>
       </c>
       <c r="I77">
-        <v>-749.18432343776</v>
+        <v>1115713.176496057</v>
       </c>
       <c r="J77">
-        <v>858.7341461512814</v>
+        <v>4842147.280172563</v>
       </c>
       <c r="K77">
-        <v>3728.119841338532</v>
+        <v>3987549.055491821</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3128,10 +3128,10 @@
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>16</v>
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>48.76628415993961</v>
+        <v>1116422.239649825</v>
       </c>
       <c r="G78">
-        <v>159.1782025116534</v>
+        <v>4841390.521506231</v>
       </c>
       <c r="H78">
-        <v>2336.409989500935</v>
+        <v>3986051.562822331</v>
       </c>
       <c r="I78">
-        <v>-690.7910224282034</v>
+        <v>1115763.749361249</v>
       </c>
       <c r="J78">
-        <v>813.7945416285418</v>
+        <v>4842098.628641192</v>
       </c>
       <c r="K78">
-        <v>3693.610192152494</v>
+        <v>3987519.580988348</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3163,10 +3163,10 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>47.31282483237398</v>
+        <v>1116420.406892042</v>
       </c>
       <c r="G79">
-        <v>175.1855079394228</v>
+        <v>4841407.034331422</v>
       </c>
       <c r="H79">
-        <v>2361.699050930671</v>
+        <v>3986069.683701709</v>
       </c>
       <c r="I79">
-        <v>-630.9598401021385</v>
+        <v>1115815.56753672</v>
       </c>
       <c r="J79">
-        <v>768.8549371058019</v>
+        <v>4842049.977109822</v>
       </c>
       <c r="K79">
-        <v>3641.364052360007</v>
+        <v>3987474.957844819</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3198,10 +3198,10 @@
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>45.98190216394745</v>
+        <v>1116418.728648398</v>
       </c>
       <c r="G80">
-        <v>191.1928133671921</v>
+        <v>4841423.547156611</v>
       </c>
       <c r="H80">
-        <v>2385.547204224629</v>
+        <v>3986086.772098225</v>
       </c>
       <c r="I80">
-        <v>-569.655369954973</v>
+        <v>1115868.66168709</v>
       </c>
       <c r="J80">
-        <v>723.9153325830621</v>
+        <v>4842001.325578449</v>
       </c>
       <c r="K80">
-        <v>3571.381421961073</v>
+        <v>3987415.186061233</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3233,10 +3233,10 @@
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>44.75722799173334</v>
+        <v>1116417.184380129</v>
       </c>
       <c r="G81">
-        <v>207.2001187949614</v>
+        <v>4841440.059981802</v>
       </c>
       <c r="H81">
-        <v>2408.109834422687</v>
+        <v>3986102.939353045</v>
       </c>
       <c r="I81">
-        <v>-506.8413336295121</v>
+        <v>1115923.063232068</v>
       </c>
       <c r="J81">
-        <v>678.9757280603225</v>
+        <v>4841952.674047078</v>
       </c>
       <c r="K81">
-        <v>3483.662300955691</v>
+        <v>3987340.265637591</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3268,10 +3268,10 @@
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>43.62539010426626</v>
+        <v>1116415.757174938</v>
       </c>
       <c r="G82">
-        <v>223.2074242227307</v>
+        <v>4841456.572806992</v>
       </c>
       <c r="H82">
-        <v>2429.518472595951</v>
+        <v>3986118.279714768</v>
       </c>
       <c r="I82">
-        <v>-442.4805594473897</v>
+        <v>1115978.804365042</v>
       </c>
       <c r="J82">
-        <v>634.0361235375826</v>
+        <v>4841904.022515707</v>
       </c>
       <c r="K82">
-        <v>3378.20668934386</v>
+        <v>3987250.196573894</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3303,10 +3303,10 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>42.57523114164253</v>
+        <v>1116414.432963813</v>
       </c>
       <c r="G83">
-        <v>239.2147296505</v>
+        <v>4841473.085632181</v>
       </c>
       <c r="H83">
-        <v>2449.885441669847</v>
+        <v>3986132.8736684</v>
       </c>
       <c r="I83">
-        <v>-376.5349604118594</v>
+        <v>1116035.918072134</v>
       </c>
       <c r="J83">
-        <v>589.0965190148429</v>
+        <v>4841855.370984335</v>
       </c>
       <c r="K83">
-        <v>3255.014587125581</v>
+        <v>3987144.97887014</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3338,10 +3338,10 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>41.59738383081675</v>
+        <v>1116413.199934972</v>
       </c>
       <c r="G84">
-        <v>255.2220350782694</v>
+        <v>4841489.598457371</v>
       </c>
       <c r="H84">
-        <v>2469.307423536075</v>
+        <v>3986146.790491357</v>
       </c>
       <c r="I84">
-        <v>-308.9655116689179</v>
+        <v>1116094.43815172</v>
       </c>
       <c r="J84">
-        <v>544.1569144921033</v>
+        <v>4841806.719452963</v>
       </c>
       <c r="K84">
-        <v>3114.085994300855</v>
+        <v>3987024.61252633</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3373,10 +3373,10 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>40.68391811228248</v>
+        <v>1116412.048088909</v>
       </c>
       <c r="G85">
-        <v>271.2293405060387</v>
+        <v>4841506.111282561</v>
       </c>
       <c r="H85">
-        <v>2487.868234720809</v>
+        <v>3986160.090242382</v>
       </c>
       <c r="I85">
-        <v>-239.7322274134346</v>
+        <v>1116154.399234429</v>
       </c>
       <c r="J85">
-        <v>499.2173099693634</v>
+        <v>4841758.067921592</v>
       </c>
       <c r="K85">
-        <v>2955.420910869679</v>
+        <v>3986889.097542464</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3408,10 +3408,10 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>39.82806967423366</v>
+        <v>1116410.968896079</v>
       </c>
       <c r="G86">
-        <v>287.2366459338079</v>
+        <v>4841522.62410775</v>
       </c>
       <c r="H86">
-        <v>2505.64101240552</v>
+        <v>3986172.825327926</v>
       </c>
       <c r="I86">
-        <v>-168.7941372266132</v>
+        <v>1116215.836803635</v>
       </c>
       <c r="J86">
-        <v>454.2777054466238</v>
+        <v>4841709.416390221</v>
       </c>
       <c r="K86">
-        <v>2779.019336832057</v>
+        <v>3986738.433918541</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3443,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>39.02402860295655</v>
+        <v>1116409.955030398</v>
       </c>
       <c r="G87">
-        <v>303.2439513615773</v>
+        <v>4841539.136932941</v>
       </c>
       <c r="H87">
-        <v>2522.689955007871</v>
+        <v>3986185.041749373</v>
       </c>
       <c r="I87">
-        <v>-96.10926183078753</v>
+        <v>1116278.787216462</v>
       </c>
       <c r="J87">
-        <v>409.338100923884</v>
+        <v>4841660.764858849</v>
       </c>
       <c r="K87">
-        <v>2584.881272187985</v>
+        <v>3986572.621654563</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3478,10 +3478,10 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>16</v>
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>38.26677303200782</v>
+        <v>1116409.000159481</v>
       </c>
       <c r="G88">
-        <v>319.2512567893467</v>
+        <v>4841555.64975813</v>
       </c>
       <c r="H88">
-        <v>2539.071721990361</v>
+        <v>3986196.780106065</v>
       </c>
       <c r="I88">
-        <v>-21.63458824719919</v>
+        <v>1116343.287725292</v>
       </c>
       <c r="J88">
-        <v>364.3984964011442</v>
+        <v>4841612.113327477</v>
       </c>
       <c r="K88">
-        <v>2373.006716937466</v>
+        <v>3986391.660750527</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3513,10 +3513,10 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>37.55193689399479</v>
+        <v>1116408.09877788</v>
       </c>
       <c r="G89">
-        <v>335.258562217116</v>
+        <v>4841572.16258332</v>
       </c>
       <c r="H89">
-        <v>2554.836569949069</v>
+        <v>3986208.076409373</v>
       </c>
       <c r="I89">
-        <v>54.67395565794185</v>
+        <v>1116409.376499812</v>
       </c>
       <c r="J89">
-        <v>319.4588918784046</v>
+        <v>4841563.461796106</v>
       </c>
       <c r="K89">
-        <v>2143.395671080499</v>
+        <v>3986195.551206437</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3548,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>36.87570381264553</v>
+        <v>1116407.246073288</v>
       </c>
       <c r="G90">
-        <v>351.2658676448852</v>
+        <v>4841588.67540851</v>
       </c>
       <c r="H90">
-        <v>2570.029282444752</v>
+        <v>3986218.96274896</v>
       </c>
       <c r="I90">
-        <v>132.8615272541738</v>
+        <v>1116477.092649604</v>
       </c>
       <c r="J90">
-        <v>274.5192873556647</v>
+        <v>4841514.810264735</v>
       </c>
       <c r="K90">
-        <v>1896.048134617083</v>
+        <v>3985984.29302229</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3583,10 +3583,10 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>36.23472124277446</v>
+        <v>1116406.437818271</v>
       </c>
       <c r="G91">
-        <v>367.2731730726546</v>
+        <v>4841605.1882337</v>
       </c>
       <c r="H91">
-        <v>2584.689936941742</v>
+        <v>3986229.467842338</v>
       </c>
       <c r="I91">
-        <v>212.9743958697167</v>
+        <v>1116546.476247287</v>
       </c>
       <c r="J91">
-        <v>229.5796828329252</v>
+        <v>4841466.158733364</v>
       </c>
       <c r="K91">
-        <v>1630.96410754722</v>
+        <v>3985757.886198087</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3618,10 +3618,10 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>35.62603044645489</v>
+        <v>1116405.670281971</v>
       </c>
       <c r="G92">
-        <v>383.280478500424</v>
+        <v>4841621.70105889</v>
       </c>
       <c r="H92">
-        <v>2598.854541942067</v>
+        <v>3986239.617491401</v>
       </c>
       <c r="I92">
-        <v>295.0599701724288</v>
+        <v>1116617.568352231</v>
       </c>
       <c r="J92">
-        <v>184.6400783101853</v>
+        <v>4841417.507201992</v>
       </c>
       <c r="K92">
-        <v>1348.143589870908</v>
+        <v>3985516.330733827</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3653,10 +3653,10 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>16</v>
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>35.0470089665159</v>
+        <v>1116404.940157569</v>
       </c>
       <c r="G93">
-        <v>399.2877839281932</v>
+        <v>4841638.21388408</v>
       </c>
       <c r="H93">
-        <v>2612.555569817325</v>
+        <v>3986249.434964231</v>
       </c>
       <c r="I93">
-        <v>379.1668262250023</v>
+        <v>1116690.411034856</v>
       </c>
       <c r="J93">
-        <v>139.7004737874455</v>
+        <v>4841368.855670621</v>
       </c>
       <c r="K93">
-        <v>1047.586581588148</v>
+        <v>3985259.626629512</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3688,10 +3688,10 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>34.49532304499433</v>
+        <v>1116404.244502281</v>
       </c>
       <c r="G94">
-        <v>415.2950893559625</v>
+        <v>4841654.72670927</v>
       </c>
       <c r="H94">
-        <v>2625.822405180171</v>
+        <v>3986258.941316375</v>
       </c>
       <c r="I94">
-        <v>465.3447362309804</v>
+        <v>1116765.047401526</v>
       </c>
       <c r="J94">
-        <v>94.76086926470592</v>
+        <v>4841320.204139249</v>
       </c>
       <c r="K94">
-        <v>729.2930826989403</v>
+        <v>3984987.77388514</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3723,10 +3723,10 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>33.96888801716702</v>
+        <v>1116403.580687425</v>
       </c>
       <c r="G95">
-        <v>431.3023947837318</v>
+        <v>4841671.23953446</v>
       </c>
       <c r="H95">
-        <v>2638.681724368574</v>
+        <v>3986268.155662765</v>
       </c>
       <c r="I95">
-        <v>553.6446979886341</v>
+        <v>1116841.521620062</v>
       </c>
       <c r="J95">
-        <v>49.8212647419661</v>
+        <v>4841271.552607878</v>
       </c>
       <c r="K95">
-        <v>393.2630932032838</v>
+        <v>3984700.772500712</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3758,10 +3758,10 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>33.4658351483564</v>
+        <v>1116402.946356596</v>
       </c>
       <c r="G96">
-        <v>447.3097002115012</v>
+        <v>4841687.75235965</v>
       </c>
       <c r="H96">
-        <v>2651.157818365646</v>
+        <v>3986277.095409109</v>
       </c>
       <c r="I96">
-        <v>644.1189650700941</v>
+        <v>1116919.878945874</v>
       </c>
       <c r="J96">
-        <v>4.88166021922629</v>
+        <v>4841222.901076506</v>
       </c>
       <c r="K96">
-        <v>39.49661310117942</v>
+        <v>3984398.622476229</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3793,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>32.98448371076996</v>
+        <v>1116402.339390459</v>
       </c>
       <c r="G97">
-        <v>463.3170056392705</v>
+        <v>4841704.265184839</v>
       </c>
       <c r="H97">
-        <v>2663.272868980343</v>
+        <v>3986285.776449781</v>
       </c>
       <c r="I97">
-        <v>736.8210777436346</v>
+        <v>1117000.165748747</v>
       </c>
       <c r="J97">
-        <v>-40.05794430351332</v>
+        <v>4841174.249545135</v>
       </c>
       <c r="K97">
-        <v>-332.006357607372</v>
+        <v>3984081.323811688</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3828,10 +3828,10 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
         <v>16</v>
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>32.52331734941359</v>
+        <v>1116401.757876947</v>
       </c>
       <c r="G98">
-        <v>479.3243110670398</v>
+        <v>4841720.778010029</v>
       </c>
       <c r="H98">
-        <v>2675.047186179166</v>
+        <v>3986294.213337892</v>
       </c>
       <c r="I98">
-        <v>831.8058946573819</v>
+        <v>1117082.429540278</v>
       </c>
       <c r="J98">
-        <v>-84.99754882625314</v>
+        <v>4841125.598013763</v>
       </c>
       <c r="K98">
-        <v>-721.2458189223727</v>
+        <v>3983748.876507093</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
         <v>16</v>
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>32.08096397979702</v>
+        <v>1116401.200085914</v>
       </c>
       <c r="G99">
-        <v>495.3316164948092</v>
+        <v>4841737.290835219</v>
       </c>
       <c r="H99">
-        <v>2686.499412947456</v>
+        <v>3986302.419432075</v>
       </c>
       <c r="I99">
-        <v>929.1296253032016</v>
+        <v>1117166.719001994</v>
       </c>
       <c r="J99">
-        <v>-129.937153348993</v>
+        <v>4841076.946482391</v>
       </c>
       <c r="K99">
-        <v>-1128.221770843822</v>
+        <v>3983401.28056244</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3898,10 +3898,10 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
         <v>16</v>
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>31.65617861031764</v>
+        <v>1116400.66444747</v>
       </c>
       <c r="G100">
-        <v>511.3389219225784</v>
+        <v>4841753.803660409</v>
       </c>
       <c r="H100">
-        <v>2697.646702869503</v>
+        <v>3986310.407023732</v>
       </c>
       <c r="I100">
-        <v>1028.849863279984</v>
+        <v>1117253.08401416</v>
       </c>
       <c r="J100">
-        <v>-174.8767578717328</v>
+        <v>4841028.294951021</v>
       </c>
       <c r="K100">
-        <v>-1552.93421337172</v>
+        <v>3983038.535977732</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3933,10 +3933,10 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>31.24782859949978</v>
+        <v>1116400.149533398</v>
       </c>
       <c r="G101">
-        <v>527.3462273503477</v>
+        <v>4841770.316485599</v>
       </c>
       <c r="H101">
-        <v>2708.504874674233</v>
+        <v>3986318.187447773</v>
       </c>
       <c r="I101">
-        <v>1131.025620376007</v>
+        <v>1117341.575685296</v>
       </c>
       <c r="J101">
-        <v>-219.8163623944722</v>
+        <v>4840979.643419649</v>
       </c>
       <c r="K101">
-        <v>-1995.383146506062</v>
+        <v>3982660.642752967</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3968,10 +3968,10 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" t="s">
         <v>16</v>
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>30.85488095052948</v>
+        <v>1116399.654041128</v>
       </c>
       <c r="G102">
-        <v>543.3535327781171</v>
+        <v>4841786.829310789</v>
       </c>
       <c r="H102">
-        <v>2719.088547241412</v>
+        <v>3986325.77117936</v>
       </c>
       <c r="I102">
-        <v>1235.717361490548</v>
+        <v>1117432.246382423</v>
       </c>
       <c r="J102">
-        <v>-264.755966917212</v>
+        <v>4840930.991888278</v>
       </c>
       <c r="K102">
-        <v>-2455.568570246855</v>
+        <v>3982267.600888147</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>16</v>
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>30.47639131857506</v>
+        <v>1116399.176779876</v>
       </c>
       <c r="G103">
-        <v>559.3608382058865</v>
+        <v>4841803.342135979</v>
       </c>
       <c r="H103">
-        <v>2729.411257959904</v>
+        <v>3986333.16791871</v>
       </c>
       <c r="I103">
-        <v>1342.987040415398</v>
+        <v>1117525.149762052</v>
       </c>
       <c r="J103">
-        <v>-309.6955714399518</v>
+        <v>4840882.340356906</v>
       </c>
       <c r="K103">
-        <v>-2933.490484594096</v>
+        <v>3981859.410383269</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4038,10 +4038,10 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>30.11149446458913</v>
+        <v>1116398.716658608</v>
       </c>
       <c r="G104">
-        <v>575.3681436336557</v>
+        <v>4841819.854961169</v>
       </c>
       <c r="H104">
-        <v>2739.485566842281</v>
+        <v>3986340.3866657</v>
       </c>
       <c r="I104">
-        <v>1452.898136497478</v>
+        <v>1117620.340801934</v>
       </c>
       <c r="J104">
-        <v>-354.6351759626916</v>
+        <v>4840833.688825535</v>
       </c>
       <c r="K104">
-        <v>-3429.148889547786</v>
+        <v>3981436.071238337</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4073,10 +4073,10 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
         <v>16</v>
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>29.7593959359409</v>
+        <v>1116398.272675549</v>
       </c>
       <c r="G105">
-        <v>591.3754490614251</v>
+        <v>4841836.367786358</v>
       </c>
       <c r="H105">
-        <v>2749.323148404496</v>
+        <v>3986347.435785706</v>
       </c>
       <c r="I105">
-        <v>1565.515692204226</v>
+        <v>1117717.875833599</v>
       </c>
       <c r="J105">
-        <v>-399.5747804854314</v>
+        <v>4840785.037294163</v>
       </c>
       <c r="K105">
-        <v>-3942.543785107924</v>
+        <v>3980997.583453347</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4108,10 +4108,10 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>29.41936479182658</v>
+        <v>1116397.84390901</v>
       </c>
       <c r="G106">
-        <v>607.3827544891943</v>
+        <v>4841852.880611548</v>
       </c>
       <c r="H106">
-        <v>2758.934872996395</v>
+        <v>3986354.323067878</v>
       </c>
       <c r="I106">
-        <v>1680.906351613998</v>
+        <v>1117817.812575688</v>
       </c>
       <c r="J106">
-        <v>-444.5143850081708</v>
+        <v>4840736.385762792</v>
       </c>
       <c r="K106">
-        <v>-4473.675171274505</v>
+        <v>3980543.947028302</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
@@ -4155,22 +4155,3732 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>29.0907272218791</v>
+        <v>1116397.429509341</v>
       </c>
       <c r="G107">
-        <v>623.3900599169637</v>
+        <v>4841869.393436738</v>
       </c>
       <c r="H107">
-        <v>2768.330879003953</v>
+        <v>3986361.055776879</v>
       </c>
       <c r="I107">
-        <v>1799.138399854278</v>
+        <v>1117920.210168111</v>
       </c>
       <c r="J107">
-        <v>-489.4539895309106</v>
+        <v>4840687.73423142</v>
       </c>
       <c r="K107">
-        <v>-5022.54304804754</v>
+        <v>3980075.161963201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G108">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H108">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I108">
+        <v>1114860.059462171</v>
+      </c>
+      <c r="J108">
+        <v>4843224.002393399</v>
+      </c>
+      <c r="K108">
+        <v>3984372.432246026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G109">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H109">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I109">
+        <v>1114889.673424157</v>
+      </c>
+      <c r="J109">
+        <v>4843175.350797853</v>
+      </c>
+      <c r="K109">
+        <v>3984676.228398965</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G110">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H110">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I110">
+        <v>1114920.016602712</v>
+      </c>
+      <c r="J110">
+        <v>4843126.699202307</v>
+      </c>
+      <c r="K110">
+        <v>3984964.875883168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G111">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H111">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I111">
+        <v>1114951.106954125</v>
+      </c>
+      <c r="J111">
+        <v>4843078.047606761</v>
+      </c>
+      <c r="K111">
+        <v>3985238.374698632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G112">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H112">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I112">
+        <v>1114982.962876838</v>
+      </c>
+      <c r="J112">
+        <v>4843029.396011215</v>
+      </c>
+      <c r="K112">
+        <v>3985496.72484536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G113">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H113">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I113">
+        <v>1115015.603222342</v>
+      </c>
+      <c r="J113">
+        <v>4842980.744415669</v>
+      </c>
+      <c r="K113">
+        <v>3985739.926323351</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G114">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H114">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I114">
+        <v>1115049.047306324</v>
+      </c>
+      <c r="J114">
+        <v>4842932.092820122</v>
+      </c>
+      <c r="K114">
+        <v>3985967.979132605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G115">
+        <v>4841124.932054092</v>
+      </c>
+      <c r="H115">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I115">
+        <v>1115083.314920107</v>
+      </c>
+      <c r="J115">
+        <v>4842883.441224576</v>
+      </c>
+      <c r="K115">
+        <v>3986180.883273121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.308862314</v>
+      </c>
+      <c r="G116">
+        <v>4841141.44487456</v>
+      </c>
+      <c r="H116">
+        <v>3985232.268040998</v>
+      </c>
+      <c r="I116">
+        <v>1115118.426342353</v>
+      </c>
+      <c r="J116">
+        <v>4842834.78962903</v>
+      </c>
+      <c r="K116">
+        <v>3986378.6387449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.628307045</v>
+      </c>
+      <c r="G117">
+        <v>4841157.957695029</v>
+      </c>
+      <c r="H117">
+        <v>3985431.522644751</v>
+      </c>
+      <c r="I117">
+        <v>1115154.402351071</v>
+      </c>
+      <c r="J117">
+        <v>4842786.138033485</v>
+      </c>
+      <c r="K117">
+        <v>3986561.245547943</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.030922905</v>
+      </c>
+      <c r="G118">
+        <v>4841174.470515497</v>
+      </c>
+      <c r="H118">
+        <v>3985550.208877013</v>
+      </c>
+      <c r="I118">
+        <v>1115191.264235906</v>
+      </c>
+      <c r="J118">
+        <v>4842737.486437938</v>
+      </c>
+      <c r="K118">
+        <v>3986728.703682248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.978156026</v>
+      </c>
+      <c r="G119">
+        <v>4841190.983335965</v>
+      </c>
+      <c r="H119">
+        <v>3985635.025905515</v>
+      </c>
+      <c r="I119">
+        <v>1115229.033810742</v>
+      </c>
+      <c r="J119">
+        <v>4842688.834842392</v>
+      </c>
+      <c r="K119">
+        <v>3986881.013147816</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.388229684</v>
+      </c>
+      <c r="G120">
+        <v>4841207.496156434</v>
+      </c>
+      <c r="H120">
+        <v>3985701.072880168</v>
+      </c>
+      <c r="I120">
+        <v>1115267.733426611</v>
+      </c>
+      <c r="J120">
+        <v>4842640.183246846</v>
+      </c>
+      <c r="K120">
+        <v>3987018.173944647</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.995767608</v>
+      </c>
+      <c r="G121">
+        <v>4841224.008976902</v>
+      </c>
+      <c r="H121">
+        <v>3985755.17047548</v>
+      </c>
+      <c r="I121">
+        <v>1115307.385984919</v>
+      </c>
+      <c r="J121">
+        <v>4842591.5316513</v>
+      </c>
+      <c r="K121">
+        <v>3987140.186072741</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.652173884</v>
+      </c>
+      <c r="G122">
+        <v>4841240.521797369</v>
+      </c>
+      <c r="H122">
+        <v>3985800.987189775</v>
+      </c>
+      <c r="I122">
+        <v>1115348.014950995</v>
+      </c>
+      <c r="J122">
+        <v>4842542.880055754</v>
+      </c>
+      <c r="K122">
+        <v>3987247.049532097</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.710671856</v>
+      </c>
+      <c r="G123">
+        <v>4841257.034617838</v>
+      </c>
+      <c r="H123">
+        <v>3985840.72484496</v>
+      </c>
+      <c r="I123">
+        <v>1115389.644367982</v>
+      </c>
+      <c r="J123">
+        <v>4842494.228460208</v>
+      </c>
+      <c r="K123">
+        <v>3987338.764322716</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.777108096</v>
+      </c>
+      <c r="G124">
+        <v>4841273.547438307</v>
+      </c>
+      <c r="H124">
+        <v>3985875.809262299</v>
+      </c>
+      <c r="I124">
+        <v>1115432.298871065</v>
+      </c>
+      <c r="J124">
+        <v>4842445.576864662</v>
+      </c>
+      <c r="K124">
+        <v>3987415.330444599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" t="s">
+        <v>16</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.596284015</v>
+      </c>
+      <c r="G125">
+        <v>4841290.060258775</v>
+      </c>
+      <c r="H125">
+        <v>3985907.216875817</v>
+      </c>
+      <c r="I125">
+        <v>1115476.003702044</v>
+      </c>
+      <c r="J125">
+        <v>4842396.925269116</v>
+      </c>
+      <c r="K125">
+        <v>3987476.747897744</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.994911952</v>
+      </c>
+      <c r="G126">
+        <v>4841306.573079243</v>
+      </c>
+      <c r="H126">
+        <v>3985935.645754286</v>
+      </c>
+      <c r="I126">
+        <v>1115520.784724279</v>
+      </c>
+      <c r="J126">
+        <v>4842348.273673569</v>
+      </c>
+      <c r="K126">
+        <v>3987523.016682153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.850728052</v>
+      </c>
+      <c r="G127">
+        <v>4841323.085899712</v>
+      </c>
+      <c r="H127">
+        <v>3985961.612288698</v>
+      </c>
+      <c r="I127">
+        <v>1115566.668437988</v>
+      </c>
+      <c r="J127">
+        <v>4842299.622078023</v>
+      </c>
+      <c r="K127">
+        <v>3987554.136797823</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.074710839</v>
+      </c>
+      <c r="G128">
+        <v>4841339.59872018</v>
+      </c>
+      <c r="H128">
+        <v>3985985.509234206</v>
+      </c>
+      <c r="I128">
+        <v>1115613.681995936</v>
+      </c>
+      <c r="J128">
+        <v>4842250.970482477</v>
+      </c>
+      <c r="K128">
+        <v>3987570.108244758</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.600316436</v>
+      </c>
+      <c r="G129">
+        <v>4841356.111540648</v>
+      </c>
+      <c r="H129">
+        <v>3986007.642277914</v>
+      </c>
+      <c r="I129">
+        <v>1115661.853219496</v>
+      </c>
+      <c r="J129">
+        <v>4842202.318886932</v>
+      </c>
+      <c r="K129">
+        <v>3987570.931022955</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.376682287</v>
+      </c>
+      <c r="G130">
+        <v>4841372.624361116</v>
+      </c>
+      <c r="H130">
+        <v>3986028.254013002</v>
+      </c>
+      <c r="I130">
+        <v>1115711.210615119</v>
+      </c>
+      <c r="J130">
+        <v>4842153.667291385</v>
+      </c>
+      <c r="K130">
+        <v>3987556.605132414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.364181233</v>
+      </c>
+      <c r="G131">
+        <v>4841389.137181585</v>
+      </c>
+      <c r="H131">
+        <v>3986047.540190075</v>
+      </c>
+      <c r="I131">
+        <v>1115761.783391202</v>
+      </c>
+      <c r="J131">
+        <v>4842105.015695839</v>
+      </c>
+      <c r="K131">
+        <v>3987527.130573136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.531423246</v>
+      </c>
+      <c r="G132">
+        <v>4841405.650002053</v>
+      </c>
+      <c r="H132">
+        <v>3986065.661051166</v>
+      </c>
+      <c r="I132">
+        <v>1115813.60147537</v>
+      </c>
+      <c r="J132">
+        <v>4842056.364100293</v>
+      </c>
+      <c r="K132">
+        <v>3987482.507345122</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.853179414</v>
+      </c>
+      <c r="G133">
+        <v>4841422.16282252</v>
+      </c>
+      <c r="H133">
+        <v>3986082.749430437</v>
+      </c>
+      <c r="I133">
+        <v>1115866.695532188</v>
+      </c>
+      <c r="J133">
+        <v>4842007.712504746</v>
+      </c>
+      <c r="K133">
+        <v>3987422.73544837</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.308910973</v>
+      </c>
+      <c r="G134">
+        <v>4841438.67564299</v>
+      </c>
+      <c r="H134">
+        <v>3986098.916668941</v>
+      </c>
+      <c r="I134">
+        <v>1115921.09698131</v>
+      </c>
+      <c r="J134">
+        <v>4841959.0609092</v>
+      </c>
+      <c r="K134">
+        <v>3987347.814882881</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.881705623</v>
+      </c>
+      <c r="G135">
+        <v>4841455.188463458</v>
+      </c>
+      <c r="H135">
+        <v>3986114.257015184</v>
+      </c>
+      <c r="I135">
+        <v>1115976.838016069</v>
+      </c>
+      <c r="J135">
+        <v>4841910.409313655</v>
+      </c>
+      <c r="K135">
+        <v>3987257.745648656</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.55749435</v>
+      </c>
+      <c r="G136">
+        <v>4841471.701283925</v>
+      </c>
+      <c r="H136">
+        <v>3986128.850954087</v>
+      </c>
+      <c r="I136">
+        <v>1116033.951622527</v>
+      </c>
+      <c r="J136">
+        <v>4841861.757718109</v>
+      </c>
+      <c r="K136">
+        <v>3987152.527745693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.324465372</v>
+      </c>
+      <c r="G137">
+        <v>4841488.214104394</v>
+      </c>
+      <c r="H137">
+        <v>3986142.767763</v>
+      </c>
+      <c r="I137">
+        <v>1116092.471599001</v>
+      </c>
+      <c r="J137">
+        <v>4841813.106122562</v>
+      </c>
+      <c r="K137">
+        <v>3987032.161173992</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.17261918</v>
+      </c>
+      <c r="G138">
+        <v>4841504.726924863</v>
+      </c>
+      <c r="H138">
+        <v>3986156.067500602</v>
+      </c>
+      <c r="I138">
+        <v>1116152.432576058</v>
+      </c>
+      <c r="J138">
+        <v>4841764.454527016</v>
+      </c>
+      <c r="K138">
+        <v>3986896.645933555</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.093426229</v>
+      </c>
+      <c r="G139">
+        <v>4841521.23974533</v>
+      </c>
+      <c r="H139">
+        <v>3986168.802573295</v>
+      </c>
+      <c r="I139">
+        <v>1116213.870037012</v>
+      </c>
+      <c r="J139">
+        <v>4841715.80293147</v>
+      </c>
+      <c r="K139">
+        <v>3986745.98202438</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.079560435</v>
+      </c>
+      <c r="G140">
+        <v>4841537.752565799</v>
+      </c>
+      <c r="H140">
+        <v>3986181.018982413</v>
+      </c>
+      <c r="I140">
+        <v>1116276.820338921</v>
+      </c>
+      <c r="J140">
+        <v>4841667.151335925</v>
+      </c>
+      <c r="K140">
+        <v>3986580.169446469</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.124689412</v>
+      </c>
+      <c r="G141">
+        <v>4841554.265386267</v>
+      </c>
+      <c r="H141">
+        <v>3986192.75732726</v>
+      </c>
+      <c r="I141">
+        <v>1116341.320734101</v>
+      </c>
+      <c r="J141">
+        <v>4841618.499740378</v>
+      </c>
+      <c r="K141">
+        <v>3986399.20819982</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.22330771</v>
+      </c>
+      <c r="G142">
+        <v>4841570.778206736</v>
+      </c>
+      <c r="H142">
+        <v>3986204.053619168</v>
+      </c>
+      <c r="I142">
+        <v>1116407.409392173</v>
+      </c>
+      <c r="J142">
+        <v>4841569.848144832</v>
+      </c>
+      <c r="K142">
+        <v>3986203.098284435</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.370603024</v>
+      </c>
+      <c r="G143">
+        <v>4841587.291027204</v>
+      </c>
+      <c r="H143">
+        <v>3986214.939947769</v>
+      </c>
+      <c r="I143">
+        <v>1116475.125422649</v>
+      </c>
+      <c r="J143">
+        <v>4841521.196549286</v>
+      </c>
+      <c r="K143">
+        <v>3985991.839700312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.562347916</v>
+      </c>
+      <c r="G144">
+        <v>4841603.803847671</v>
+      </c>
+      <c r="H144">
+        <v>3986225.445030544</v>
+      </c>
+      <c r="I144">
+        <v>1116544.508898079</v>
+      </c>
+      <c r="J144">
+        <v>4841472.54495374</v>
+      </c>
+      <c r="K144">
+        <v>3985765.432447452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.794811531</v>
+      </c>
+      <c r="G145">
+        <v>4841620.316668141</v>
+      </c>
+      <c r="H145">
+        <v>3986235.594669365</v>
+      </c>
+      <c r="I145">
+        <v>1116615.600877759</v>
+      </c>
+      <c r="J145">
+        <v>4841423.893358193</v>
+      </c>
+      <c r="K145">
+        <v>3985523.876525855</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.064687047</v>
+      </c>
+      <c r="G146">
+        <v>4841636.829488609</v>
+      </c>
+      <c r="H146">
+        <v>3986245.412132288</v>
+      </c>
+      <c r="I146">
+        <v>1116688.443432036</v>
+      </c>
+      <c r="J146">
+        <v>4841375.241762647</v>
+      </c>
+      <c r="K146">
+        <v>3985267.171935521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.369031682</v>
+      </c>
+      <c r="G147">
+        <v>4841653.342309076</v>
+      </c>
+      <c r="H147">
+        <v>3986254.918474838</v>
+      </c>
+      <c r="I147">
+        <v>1116763.079667197</v>
+      </c>
+      <c r="J147">
+        <v>4841326.590167101</v>
+      </c>
+      <c r="K147">
+        <v>3984995.318676449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.705216752</v>
+      </c>
+      <c r="G148">
+        <v>4841669.855129546</v>
+      </c>
+      <c r="H148">
+        <v>3986264.13281193</v>
+      </c>
+      <c r="I148">
+        <v>1116839.553750986</v>
+      </c>
+      <c r="J148">
+        <v>4841277.938571556</v>
+      </c>
+      <c r="K148">
+        <v>3984708.316748641</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.070885852</v>
+      </c>
+      <c r="G149">
+        <v>4841686.367950014</v>
+      </c>
+      <c r="H149">
+        <v>3986273.072549251</v>
+      </c>
+      <c r="I149">
+        <v>1116917.910938733</v>
+      </c>
+      <c r="J149">
+        <v>4841229.286976009</v>
+      </c>
+      <c r="K149">
+        <v>3984406.166152095</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.463919647</v>
+      </c>
+      <c r="G150">
+        <v>4841702.880770481</v>
+      </c>
+      <c r="H150">
+        <v>3986281.753581163</v>
+      </c>
+      <c r="I150">
+        <v>1116998.19760014</v>
+      </c>
+      <c r="J150">
+        <v>4841180.635380463</v>
+      </c>
+      <c r="K150">
+        <v>3984088.866886812</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.88240607</v>
+      </c>
+      <c r="G151">
+        <v>4841719.39359095</v>
+      </c>
+      <c r="H151">
+        <v>3986290.190460759</v>
+      </c>
+      <c r="I151">
+        <v>1117080.461246723</v>
+      </c>
+      <c r="J151">
+        <v>4841131.983784917</v>
+      </c>
+      <c r="K151">
+        <v>3983756.418952793</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.324614974</v>
+      </c>
+      <c r="G152">
+        <v>4841735.906411418</v>
+      </c>
+      <c r="H152">
+        <v>3986298.396546661</v>
+      </c>
+      <c r="I152">
+        <v>1117164.750559921</v>
+      </c>
+      <c r="J152">
+        <v>4841083.332189371</v>
+      </c>
+      <c r="K152">
+        <v>3983408.822350035</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.788976471</v>
+      </c>
+      <c r="G153">
+        <v>4841752.419231886</v>
+      </c>
+      <c r="H153">
+        <v>3986306.384130256</v>
+      </c>
+      <c r="I153">
+        <v>1117251.115419912</v>
+      </c>
+      <c r="J153">
+        <v>4841034.680593825</v>
+      </c>
+      <c r="K153">
+        <v>3983046.077078542</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.274062342</v>
+      </c>
+      <c r="G154">
+        <v>4841768.932052355</v>
+      </c>
+      <c r="H154">
+        <v>3986314.164546446</v>
+      </c>
+      <c r="I154">
+        <v>1117339.606935127</v>
+      </c>
+      <c r="J154">
+        <v>4840986.028998279</v>
+      </c>
+      <c r="K154">
+        <v>3982668.18313831</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.778570017</v>
+      </c>
+      <c r="G155">
+        <v>4841785.444872823</v>
+      </c>
+      <c r="H155">
+        <v>3986321.748270379</v>
+      </c>
+      <c r="I155">
+        <v>1117430.277472493</v>
+      </c>
+      <c r="J155">
+        <v>4840937.377402733</v>
+      </c>
+      <c r="K155">
+        <v>3982275.140529342</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.301308712</v>
+      </c>
+      <c r="G156">
+        <v>4841801.957693291</v>
+      </c>
+      <c r="H156">
+        <v>3986329.145002265</v>
+      </c>
+      <c r="I156">
+        <v>1117523.180688426</v>
+      </c>
+      <c r="J156">
+        <v>4840888.725807186</v>
+      </c>
+      <c r="K156">
+        <v>3981866.949251636</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.841187392</v>
+      </c>
+      <c r="G157">
+        <v>4841818.47051376</v>
+      </c>
+      <c r="H157">
+        <v>3986336.36374197</v>
+      </c>
+      <c r="I157">
+        <v>1117618.371560582</v>
+      </c>
+      <c r="J157">
+        <v>4840840.07421164</v>
+      </c>
+      <c r="K157">
+        <v>3981443.609305194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.397204283</v>
+      </c>
+      <c r="G158">
+        <v>4841834.983334227</v>
+      </c>
+      <c r="H158">
+        <v>3986343.412854862</v>
+      </c>
+      <c r="I158">
+        <v>1117715.906420391</v>
+      </c>
+      <c r="J158">
+        <v>4840791.422616094</v>
+      </c>
+      <c r="K158">
+        <v>3981005.120690014</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.968437696</v>
+      </c>
+      <c r="G159">
+        <v>4841851.496154697</v>
+      </c>
+      <c r="H159">
+        <v>3986350.300130084</v>
+      </c>
+      <c r="I159">
+        <v>1117815.842986392</v>
+      </c>
+      <c r="J159">
+        <v>4840742.771020548</v>
+      </c>
+      <c r="K159">
+        <v>3980551.483406098</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.554037981</v>
+      </c>
+      <c r="G160">
+        <v>4841868.008975165</v>
+      </c>
+      <c r="H160">
+        <v>3986357.03283229</v>
+      </c>
+      <c r="I160">
+        <v>1117918.240398391</v>
+      </c>
+      <c r="J160">
+        <v>4840694.119425002</v>
+      </c>
+      <c r="K160">
+        <v>3980082.697453444</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G161">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H161">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I161">
+        <v>1114862.350087902</v>
+      </c>
+      <c r="J161">
+        <v>4843216.488997838</v>
+      </c>
+      <c r="K161">
+        <v>3984371.076602592</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G162">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H162">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I162">
+        <v>1114891.964110734</v>
+      </c>
+      <c r="J162">
+        <v>4843167.837477766</v>
+      </c>
+      <c r="K162">
+        <v>3984674.872652167</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G163">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H163">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I163">
+        <v>1114922.307351633</v>
+      </c>
+      <c r="J163">
+        <v>4843119.185957693</v>
+      </c>
+      <c r="K163">
+        <v>3984963.52003816</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G164">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H164">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I164">
+        <v>1114953.397766925</v>
+      </c>
+      <c r="J164">
+        <v>4843070.534437622</v>
+      </c>
+      <c r="K164">
+        <v>3985237.018760569</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G165">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H165">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I165">
+        <v>1114985.25375509</v>
+      </c>
+      <c r="J165">
+        <v>4843021.88291755</v>
+      </c>
+      <c r="K165">
+        <v>3985495.368819396</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G166">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H166">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I166">
+        <v>1115017.894167658</v>
+      </c>
+      <c r="J166">
+        <v>4842973.231397479</v>
+      </c>
+      <c r="K166">
+        <v>3985738.57021464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G167">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H167">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I167">
+        <v>1115051.338320355</v>
+      </c>
+      <c r="J167">
+        <v>4842924.579877406</v>
+      </c>
+      <c r="K167">
+        <v>3985966.622946301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G168">
+        <v>4841130.982646526</v>
+      </c>
+      <c r="H168">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I168">
+        <v>1115085.606004545</v>
+      </c>
+      <c r="J168">
+        <v>4842875.928357335</v>
+      </c>
+      <c r="K168">
+        <v>3986179.527014379</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116579.972851582</v>
+      </c>
+      <c r="G169">
+        <v>4841147.495487633</v>
+      </c>
+      <c r="H169">
+        <v>3985227.295561121</v>
+      </c>
+      <c r="I169">
+        <v>1115120.717498933</v>
+      </c>
+      <c r="J169">
+        <v>4842827.276837263</v>
+      </c>
+      <c r="K169">
+        <v>3986377.282418874</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116531.292223767</v>
+      </c>
+      <c r="G170">
+        <v>4841164.008328739</v>
+      </c>
+      <c r="H170">
+        <v>3985426.549916258</v>
+      </c>
+      <c r="I170">
+        <v>1115156.693581568</v>
+      </c>
+      <c r="J170">
+        <v>4842778.625317192</v>
+      </c>
+      <c r="K170">
+        <v>3986559.889159786</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116502.694797009</v>
+      </c>
+      <c r="G171">
+        <v>4841180.521169846</v>
+      </c>
+      <c r="H171">
+        <v>3985545.236000432</v>
+      </c>
+      <c r="I171">
+        <v>1115193.55554214</v>
+      </c>
+      <c r="J171">
+        <v>4842729.973797119</v>
+      </c>
+      <c r="K171">
+        <v>3986727.347237115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116484.642003226</v>
+      </c>
+      <c r="G172">
+        <v>4841197.034010952</v>
+      </c>
+      <c r="H172">
+        <v>3985630.052923105</v>
+      </c>
+      <c r="I172">
+        <v>1115231.325194579</v>
+      </c>
+      <c r="J172">
+        <v>4842681.322277048</v>
+      </c>
+      <c r="K172">
+        <v>3986879.656650861</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116472.052058123</v>
+      </c>
+      <c r="G173">
+        <v>4841213.546852059</v>
+      </c>
+      <c r="H173">
+        <v>3985696.09981535</v>
+      </c>
+      <c r="I173">
+        <v>1115270.024889962</v>
+      </c>
+      <c r="J173">
+        <v>4842632.670756976</v>
+      </c>
+      <c r="K173">
+        <v>3987016.817401025</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116462.65958205</v>
+      </c>
+      <c r="G174">
+        <v>4841230.059693166</v>
+      </c>
+      <c r="H174">
+        <v>3985750.197343163</v>
+      </c>
+      <c r="I174">
+        <v>1115309.677529741</v>
+      </c>
+      <c r="J174">
+        <v>4842584.019236904</v>
+      </c>
+      <c r="K174">
+        <v>3987138.829487605</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116455.315977381</v>
+      </c>
+      <c r="G175">
+        <v>4841246.572534272</v>
+      </c>
+      <c r="H175">
+        <v>3985796.014000292</v>
+      </c>
+      <c r="I175">
+        <v>1115350.306579294</v>
+      </c>
+      <c r="J175">
+        <v>4842535.367716831</v>
+      </c>
+      <c r="K175">
+        <v>3987245.692910602</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116449.374466499</v>
+      </c>
+      <c r="G176">
+        <v>4841263.085375379</v>
+      </c>
+      <c r="H176">
+        <v>3985835.751605894</v>
+      </c>
+      <c r="I176">
+        <v>1115391.936081815</v>
+      </c>
+      <c r="J176">
+        <v>4842486.71619676</v>
+      </c>
+      <c r="K176">
+        <v>3987337.407670016</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116444.440895387</v>
+      </c>
+      <c r="G177">
+        <v>4841279.598216485</v>
+      </c>
+      <c r="H177">
+        <v>3985870.835979458</v>
+      </c>
+      <c r="I177">
+        <v>1115434.590672537</v>
+      </c>
+      <c r="J177">
+        <v>4842438.064676688</v>
+      </c>
+      <c r="K177">
+        <v>3987413.973765848</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116440.260065075</v>
+      </c>
+      <c r="G178">
+        <v>4841296.111057592</v>
+      </c>
+      <c r="H178">
+        <v>3985902.243553788</v>
+      </c>
+      <c r="I178">
+        <v>1115478.295593313</v>
+      </c>
+      <c r="J178">
+        <v>4842389.413156617</v>
+      </c>
+      <c r="K178">
+        <v>3987475.391198097</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116436.658687645</v>
+      </c>
+      <c r="G179">
+        <v>4841312.623898698</v>
+      </c>
+      <c r="H179">
+        <v>3985930.672396786</v>
+      </c>
+      <c r="I179">
+        <v>1115523.076707557</v>
+      </c>
+      <c r="J179">
+        <v>4842340.761636544</v>
+      </c>
+      <c r="K179">
+        <v>3987521.659966763</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116433.514499059</v>
+      </c>
+      <c r="G180">
+        <v>4841329.136739805</v>
+      </c>
+      <c r="H180">
+        <v>3985956.638898798</v>
+      </c>
+      <c r="I180">
+        <v>1115568.96051554</v>
+      </c>
+      <c r="J180">
+        <v>4842292.110116472</v>
+      </c>
+      <c r="K180">
+        <v>3987552.780071845</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116430.73847771</v>
+      </c>
+      <c r="G181">
+        <v>4841345.649580911</v>
+      </c>
+      <c r="H181">
+        <v>3985980.53581449</v>
+      </c>
+      <c r="I181">
+        <v>1115615.974170083</v>
+      </c>
+      <c r="J181">
+        <v>4842243.458596401</v>
+      </c>
+      <c r="K181">
+        <v>3987568.751513345</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116428.26407962</v>
+      </c>
+      <c r="G182">
+        <v>4841362.162422018</v>
+      </c>
+      <c r="H182">
+        <v>3986002.668830581</v>
+      </c>
+      <c r="I182">
+        <v>1115664.145492617</v>
+      </c>
+      <c r="J182">
+        <v>4842194.807076329</v>
+      </c>
+      <c r="K182">
+        <v>3987569.574291262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116426.040442156</v>
+      </c>
+      <c r="G183">
+        <v>4841378.675263125</v>
+      </c>
+      <c r="H183">
+        <v>3986023.280539952</v>
+      </c>
+      <c r="I183">
+        <v>1115713.502989652</v>
+      </c>
+      <c r="J183">
+        <v>4842146.155556257</v>
+      </c>
+      <c r="K183">
+        <v>3987555.248405595</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>2</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116424.027938103</v>
+      </c>
+      <c r="G184">
+        <v>4841395.188104231</v>
+      </c>
+      <c r="H184">
+        <v>3986042.566692961</v>
+      </c>
+      <c r="I184">
+        <v>1115764.075869643</v>
+      </c>
+      <c r="J184">
+        <v>4842097.504036185</v>
+      </c>
+      <c r="K184">
+        <v>3987525.773856346</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>2</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116422.195177385</v>
+      </c>
+      <c r="G185">
+        <v>4841411.700945337</v>
+      </c>
+      <c r="H185">
+        <v>3986060.687531442</v>
+      </c>
+      <c r="I185">
+        <v>1115815.894060278</v>
+      </c>
+      <c r="J185">
+        <v>4842048.852516114</v>
+      </c>
+      <c r="K185">
+        <v>3987481.150643514</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>2</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116420.516931053</v>
+      </c>
+      <c r="G186">
+        <v>4841428.213786444</v>
+      </c>
+      <c r="H186">
+        <v>3986077.775889391</v>
+      </c>
+      <c r="I186">
+        <v>1115868.988226185</v>
+      </c>
+      <c r="J186">
+        <v>4842000.200996041</v>
+      </c>
+      <c r="K186">
+        <v>3987421.3787671</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116418.97266031</v>
+      </c>
+      <c r="G187">
+        <v>4841444.72662755</v>
+      </c>
+      <c r="H187">
+        <v>3986093.943107723</v>
+      </c>
+      <c r="I187">
+        <v>1115923.389787082</v>
+      </c>
+      <c r="J187">
+        <v>4841951.54947597</v>
+      </c>
+      <c r="K187">
+        <v>3987346.458227102</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116417.545452832</v>
+      </c>
+      <c r="G188">
+        <v>4841461.239468657</v>
+      </c>
+      <c r="H188">
+        <v>3986109.283434825</v>
+      </c>
+      <c r="I188">
+        <v>1115979.130936367</v>
+      </c>
+      <c r="J188">
+        <v>4841902.897955898</v>
+      </c>
+      <c r="K188">
+        <v>3987256.389023521</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116416.221239586</v>
+      </c>
+      <c r="G189">
+        <v>4841477.752309763</v>
+      </c>
+      <c r="H189">
+        <v>3986123.877355519</v>
+      </c>
+      <c r="I189">
+        <v>1116036.244660173</v>
+      </c>
+      <c r="J189">
+        <v>4841854.246435827</v>
+      </c>
+      <c r="K189">
+        <v>3987151.171156358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116414.988208771</v>
+      </c>
+      <c r="G190">
+        <v>4841494.26515087</v>
+      </c>
+      <c r="H190">
+        <v>3986137.794147068</v>
+      </c>
+      <c r="I190">
+        <v>1116094.764756884</v>
+      </c>
+      <c r="J190">
+        <v>4841805.594915754</v>
+      </c>
+      <c r="K190">
+        <v>3987030.804625611</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116413.836360862</v>
+      </c>
+      <c r="G191">
+        <v>4841510.777991977</v>
+      </c>
+      <c r="H191">
+        <v>3986151.093868076</v>
+      </c>
+      <c r="I191">
+        <v>1116154.725857139</v>
+      </c>
+      <c r="J191">
+        <v>4841756.943395682</v>
+      </c>
+      <c r="K191">
+        <v>3986895.289431281</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116412.757166303</v>
+      </c>
+      <c r="G192">
+        <v>4841527.290833083</v>
+      </c>
+      <c r="H192">
+        <v>3986163.828924879</v>
+      </c>
+      <c r="I192">
+        <v>1116216.163444324</v>
+      </c>
+      <c r="J192">
+        <v>4841708.29187561</v>
+      </c>
+      <c r="K192">
+        <v>3986744.625573369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116411.743298999</v>
+      </c>
+      <c r="G193">
+        <v>4841543.803674189</v>
+      </c>
+      <c r="H193">
+        <v>3986176.045318754</v>
+      </c>
+      <c r="I193">
+        <v>1116279.113875573</v>
+      </c>
+      <c r="J193">
+        <v>4841659.640355539</v>
+      </c>
+      <c r="K193">
+        <v>3986578.813051873</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116410.788426552</v>
+      </c>
+      <c r="G194">
+        <v>4841560.316515296</v>
+      </c>
+      <c r="H194">
+        <v>3986187.783648954</v>
+      </c>
+      <c r="I194">
+        <v>1116343.614403277</v>
+      </c>
+      <c r="J194">
+        <v>4841610.988835466</v>
+      </c>
+      <c r="K194">
+        <v>3986397.851866795</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116409.887043507</v>
+      </c>
+      <c r="G195">
+        <v>4841576.829356402</v>
+      </c>
+      <c r="H195">
+        <v>3986199.079926767</v>
+      </c>
+      <c r="I195">
+        <v>1116409.703197137</v>
+      </c>
+      <c r="J195">
+        <v>4841562.337315395</v>
+      </c>
+      <c r="K195">
+        <v>3986201.742018134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116409.03433755</v>
+      </c>
+      <c r="G196">
+        <v>4841593.342197509</v>
+      </c>
+      <c r="H196">
+        <v>3986209.966241785</v>
+      </c>
+      <c r="I196">
+        <v>1116477.419366745</v>
+      </c>
+      <c r="J196">
+        <v>4841513.685795323</v>
+      </c>
+      <c r="K196">
+        <v>3985990.48350589</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116408.226081238</v>
+      </c>
+      <c r="G197">
+        <v>4841609.855038615</v>
+      </c>
+      <c r="H197">
+        <v>3986220.471311454</v>
+      </c>
+      <c r="I197">
+        <v>1116546.802984732</v>
+      </c>
+      <c r="J197">
+        <v>4841465.034275251</v>
+      </c>
+      <c r="K197">
+        <v>3985764.076330062</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116407.458543709</v>
+      </c>
+      <c r="G198">
+        <v>4841626.367879722</v>
+      </c>
+      <c r="H198">
+        <v>3986230.62093761</v>
+      </c>
+      <c r="I198">
+        <v>1116617.89511048</v>
+      </c>
+      <c r="J198">
+        <v>4841416.382755179</v>
+      </c>
+      <c r="K198">
+        <v>3985522.520490652</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116406.728418136</v>
+      </c>
+      <c r="G199">
+        <v>4841642.880720829</v>
+      </c>
+      <c r="H199">
+        <v>3986240.438388283</v>
+      </c>
+      <c r="I199">
+        <v>1116690.737814421</v>
+      </c>
+      <c r="J199">
+        <v>4841367.731235107</v>
+      </c>
+      <c r="K199">
+        <v>3985265.81598766</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116406.032761735</v>
+      </c>
+      <c r="G200">
+        <v>4841659.393561935</v>
+      </c>
+      <c r="H200">
+        <v>3986249.944718972</v>
+      </c>
+      <c r="I200">
+        <v>1116765.374202932</v>
+      </c>
+      <c r="J200">
+        <v>4841319.079715036</v>
+      </c>
+      <c r="K200">
+        <v>3984993.962821084</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>2</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116405.368945816</v>
+      </c>
+      <c r="G201">
+        <v>4841675.906403041</v>
+      </c>
+      <c r="H201">
+        <v>3986259.159044567</v>
+      </c>
+      <c r="I201">
+        <v>1116841.848443846</v>
+      </c>
+      <c r="J201">
+        <v>4841270.428194964</v>
+      </c>
+      <c r="K201">
+        <v>3984706.960990924</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116404.73461397</v>
+      </c>
+      <c r="G202">
+        <v>4841692.419244149</v>
+      </c>
+      <c r="H202">
+        <v>3986268.098770734</v>
+      </c>
+      <c r="I202">
+        <v>1116920.205792588</v>
+      </c>
+      <c r="J202">
+        <v>4841221.776674892</v>
+      </c>
+      <c r="K202">
+        <v>3984404.810497183</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116404.127646861</v>
+      </c>
+      <c r="G203">
+        <v>4841708.932085254</v>
+      </c>
+      <c r="H203">
+        <v>3986276.779791814</v>
+      </c>
+      <c r="I203">
+        <v>1117000.492618956</v>
+      </c>
+      <c r="J203">
+        <v>4841173.12515482</v>
+      </c>
+      <c r="K203">
+        <v>3984087.511339858</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>16</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116403.546132418</v>
+      </c>
+      <c r="G204">
+        <v>4841725.444926362</v>
+      </c>
+      <c r="H204">
+        <v>3986285.216660884</v>
+      </c>
+      <c r="I204">
+        <v>1117082.75643456</v>
+      </c>
+      <c r="J204">
+        <v>4841124.473634749</v>
+      </c>
+      <c r="K204">
+        <v>3983755.06351895</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116402.98834049</v>
+      </c>
+      <c r="G205">
+        <v>4841741.957767467</v>
+      </c>
+      <c r="H205">
+        <v>3986293.422736546</v>
+      </c>
+      <c r="I205">
+        <v>1117167.045920942</v>
+      </c>
+      <c r="J205">
+        <v>4841075.822114676</v>
+      </c>
+      <c r="K205">
+        <v>3983407.46703446</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116402.452701189</v>
+      </c>
+      <c r="G206">
+        <v>4841758.470608574</v>
+      </c>
+      <c r="H206">
+        <v>3986301.410310176</v>
+      </c>
+      <c r="I206">
+        <v>1117253.410958381</v>
+      </c>
+      <c r="J206">
+        <v>4841027.170594605</v>
+      </c>
+      <c r="K206">
+        <v>3983044.721886386</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" t="s">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116401.937786293</v>
+      </c>
+      <c r="G207">
+        <v>4841774.983449681</v>
+      </c>
+      <c r="H207">
+        <v>3986309.190716658</v>
+      </c>
+      <c r="I207">
+        <v>1117341.902655412</v>
+      </c>
+      <c r="J207">
+        <v>4840978.519074533</v>
+      </c>
+      <c r="K207">
+        <v>3982666.82807473</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116401.442293229</v>
+      </c>
+      <c r="G208">
+        <v>4841791.496290787</v>
+      </c>
+      <c r="H208">
+        <v>3986316.774431129</v>
+      </c>
+      <c r="I208">
+        <v>1117432.573379073</v>
+      </c>
+      <c r="J208">
+        <v>4840929.867554461</v>
+      </c>
+      <c r="K208">
+        <v>3982273.78559949</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116400.965031212</v>
+      </c>
+      <c r="G209">
+        <v>4841808.009131894</v>
+      </c>
+      <c r="H209">
+        <v>3986324.171153785</v>
+      </c>
+      <c r="I209">
+        <v>1117525.476785887</v>
+      </c>
+      <c r="J209">
+        <v>4840881.216034388</v>
+      </c>
+      <c r="K209">
+        <v>3981865.594460668</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" t="s">
+        <v>16</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116400.504909207</v>
+      </c>
+      <c r="G210">
+        <v>4841824.521973001</v>
+      </c>
+      <c r="H210">
+        <v>3986331.389884483</v>
+      </c>
+      <c r="I210">
+        <v>1117620.667853626</v>
+      </c>
+      <c r="J210">
+        <v>4840832.564514317</v>
+      </c>
+      <c r="K210">
+        <v>3981442.254658263</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116400.060925437</v>
+      </c>
+      <c r="G211">
+        <v>4841841.034814106</v>
+      </c>
+      <c r="H211">
+        <v>3986338.438988579</v>
+      </c>
+      <c r="I211">
+        <v>1117718.202913833</v>
+      </c>
+      <c r="J211">
+        <v>4840783.912994245</v>
+      </c>
+      <c r="K211">
+        <v>3981003.766192274</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116399.632158211</v>
+      </c>
+      <c r="G212">
+        <v>4841857.547655214</v>
+      </c>
+      <c r="H212">
+        <v>3986345.326255208</v>
+      </c>
+      <c r="I212">
+        <v>1117818.139685167</v>
+      </c>
+      <c r="J212">
+        <v>4840735.261474174</v>
+      </c>
+      <c r="K212">
+        <v>3980550.129062703</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116399.217757878</v>
+      </c>
+      <c r="G213">
+        <v>4841874.06049632</v>
+      </c>
+      <c r="H213">
+        <v>3986352.058949014</v>
+      </c>
+      <c r="I213">
+        <v>1117920.537307555</v>
+      </c>
+      <c r="J213">
+        <v>4840686.609954101</v>
+      </c>
+      <c r="K213">
+        <v>3980081.343269549</v>
       </c>
     </row>
   </sheetData>
